--- a/Data/item_wise_yesterday_sales_Copy2.xlsx
+++ b/Data/item_wise_yesterday_sales_Copy2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="260">
   <si>
     <t>BSL NO</t>
   </si>
@@ -133,21 +133,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -157,114 +157,117 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet 40's</t>
+    <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 10mg Tablet</t>
+    <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 300mg Capsule</t>
+    <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
+    <t>Nabumet 500mg FC Tab 30's</t>
+  </si>
+  <si>
     <t>Nabumet 750mg FC Tab 24's</t>
   </si>
   <si>
-    <t>Nabumet 500mg FC Tab 30's</t>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
   </si>
   <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin 60ml Suspension</t>
+  </si>
+  <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -274,37 +277,43 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
+    <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
@@ -334,12 +343,12 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti 100ml Syrup</t>
+  </si>
+  <si>
     <t>Toti Tablet</t>
   </si>
   <si>
-    <t>Toti 100ml Syrup</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -349,19 +358,22 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 35ml Dry Suspension</t>
+    <t>1's</t>
   </si>
   <si>
     <t>12's</t>
@@ -370,9 +382,6 @@
     <t>18's</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -436,6 +445,9 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -454,325 +466,331 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>20ml</t>
   </si>
   <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>0.24%</t>
+  </si>
+  <si>
+    <t>0.9%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>0.16%</t>
+  </si>
+  <si>
+    <t>4.61%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>1.51%</t>
+  </si>
+  <si>
+    <t>4.35%</t>
+  </si>
+  <si>
+    <t>0.22%</t>
+  </si>
+  <si>
+    <t>0.29%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>5.21%</t>
+  </si>
+  <si>
+    <t>2.27%</t>
+  </si>
+  <si>
+    <t>5.54%</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>0.14%</t>
+  </si>
+  <si>
+    <t>6.35%</t>
+  </si>
+  <si>
+    <t>0.72%</t>
+  </si>
+  <si>
+    <t>10.69%</t>
+  </si>
+  <si>
+    <t>0.78%</t>
+  </si>
+  <si>
+    <t>2.82%</t>
+  </si>
+  <si>
+    <t>3.46%</t>
+  </si>
+  <si>
+    <t>0.34%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>0.15%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>0.02%</t>
+  </si>
+  <si>
+    <t>0.05%</t>
+  </si>
+  <si>
+    <t>1.93%</t>
+  </si>
+  <si>
+    <t>0.28%</t>
+  </si>
+  <si>
+    <t>0.87%</t>
+  </si>
+  <si>
+    <t>1.34%</t>
+  </si>
+  <si>
+    <t>0.55%</t>
+  </si>
+  <si>
+    <t>0.69%</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>2.67%</t>
+  </si>
+  <si>
+    <t>0.12%</t>
   </si>
   <si>
     <t>0.09%</t>
   </si>
   <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>0.22%</t>
+    <t>0.65%</t>
+  </si>
+  <si>
+    <t>0.47%</t>
+  </si>
+  <si>
+    <t>3.23%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>2.83%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>0.49%</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>0.51%</t>
+  </si>
+  <si>
+    <t>5.72%</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>0.32%</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
+    <t>3.42%</t>
+  </si>
+  <si>
+    <t>3.43%</t>
+  </si>
+  <si>
+    <t>1.24%</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TP Sales Value</t>
+  </si>
+  <si>
+    <t>Net Sales Value</t>
+  </si>
+  <si>
+    <t>1.63%</t>
+  </si>
+  <si>
+    <t>1.79%</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>0.26%</t>
+  </si>
+  <si>
+    <t>6.1%</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
+  </si>
+  <si>
+    <t>0.92%</t>
+  </si>
+  <si>
+    <t>0.39%</t>
+  </si>
+  <si>
+    <t>11.02%</t>
+  </si>
+  <si>
+    <t>3.49%</t>
+  </si>
+  <si>
+    <t>10.25%</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>11.06%</t>
+  </si>
+  <si>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>2.45%</t>
+  </si>
+  <si>
+    <t>0.62%</t>
+  </si>
+  <si>
+    <t>0.45%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>3.82%</t>
+  </si>
+  <si>
+    <t>0.66%</t>
+  </si>
+  <si>
+    <t>3.25%</t>
+  </si>
+  <si>
+    <t>3.11%</t>
+  </si>
+  <si>
+    <t>0.85%</t>
+  </si>
+  <si>
+    <t>1.01%</t>
+  </si>
+  <si>
+    <t>4.71%</t>
+  </si>
+  <si>
+    <t>1.03%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
+  </si>
+  <si>
+    <t>1.27%</t>
   </si>
   <si>
     <t>0.37%</t>
   </si>
   <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>4.3%</t>
-  </si>
-  <si>
-    <t>0.02%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>0.24%</t>
-  </si>
-  <si>
-    <t>4.64%</t>
-  </si>
-  <si>
-    <t>1.79%</t>
-  </si>
-  <si>
-    <t>2.87%</t>
-  </si>
-  <si>
-    <t>2.66%</t>
-  </si>
-  <si>
-    <t>6.23%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>1.28%</t>
-  </si>
-  <si>
-    <t>10.67%</t>
-  </si>
-  <si>
-    <t>5.77%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>2.19%</t>
-  </si>
-  <si>
-    <t>6.25%</t>
-  </si>
-  <si>
-    <t>0.01%</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>0.62%</t>
-  </si>
-  <si>
     <t>0.17%</t>
   </si>
   <si>
-    <t>0.69%</t>
-  </si>
-  <si>
-    <t>1.39%</t>
-  </si>
-  <si>
-    <t>1.56%</t>
+    <t>3.79%</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>0.19%</t>
+  </si>
+  <si>
+    <t>0.76%</t>
+  </si>
+  <si>
+    <t>1.08%</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>2.03%</t>
+  </si>
+  <si>
+    <t>6.05%</t>
   </si>
   <si>
     <t>0.5%</t>
-  </si>
-  <si>
-    <t>0.55%</t>
-  </si>
-  <si>
-    <t>0.12%</t>
-  </si>
-  <si>
-    <t>2.55%</t>
-  </si>
-  <si>
-    <t>3.34%</t>
-  </si>
-  <si>
-    <t>0.75%</t>
-  </si>
-  <si>
-    <t>0.28%</t>
-  </si>
-  <si>
-    <t>4.27%</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>0.05%</t>
-  </si>
-  <si>
-    <t>0.43%</t>
-  </si>
-  <si>
-    <t>0.26%</t>
-  </si>
-  <si>
-    <t>0.32%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>1.87%</t>
-  </si>
-  <si>
-    <t>0.71%</t>
-  </si>
-  <si>
-    <t>0.31%</t>
-  </si>
-  <si>
-    <t>0.74%</t>
-  </si>
-  <si>
-    <t>0.19%</t>
-  </si>
-  <si>
-    <t>3.45%</t>
-  </si>
-  <si>
-    <t>1.47%</t>
-  </si>
-  <si>
-    <t>0.45%</t>
-  </si>
-  <si>
-    <t>4.03%</t>
-  </si>
-  <si>
-    <t>2.7%</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>TP Sales Value</t>
-  </si>
-  <si>
-    <t>Net Sales Value</t>
-  </si>
-  <si>
-    <t>0.14%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>5.65%</t>
-  </si>
-  <si>
-    <t>0.06%</t>
-  </si>
-  <si>
-    <t>0.15%</t>
-  </si>
-  <si>
-    <t>0.97%</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>2.51%</t>
-  </si>
-  <si>
-    <t>4.08%</t>
-  </si>
-  <si>
-    <t>11.45%</t>
-  </si>
-  <si>
-    <t>12.33%</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
-  </si>
-  <si>
-    <t>10.02%</t>
-  </si>
-  <si>
-    <t>0.53%</t>
-  </si>
-  <si>
-    <t>0.48%</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>0.86%</t>
-  </si>
-  <si>
-    <t>4.6%</t>
-  </si>
-  <si>
-    <t>0.89%</t>
-  </si>
-  <si>
-    <t>3.36%</t>
-  </si>
-  <si>
-    <t>3.2%</t>
-  </si>
-  <si>
-    <t>0.76%</t>
-  </si>
-  <si>
-    <t>4.46%</t>
-  </si>
-  <si>
-    <t>0.44%</t>
-  </si>
-  <si>
-    <t>0.18%</t>
-  </si>
-  <si>
-    <t>1.19%</t>
-  </si>
-  <si>
-    <t>0.49%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.06%</t>
-  </si>
-  <si>
-    <t>0.34%</t>
-  </si>
-  <si>
-    <t>2.5%</t>
-  </si>
-  <si>
-    <t>0.39%</t>
-  </si>
-  <si>
-    <t>0.65%</t>
-  </si>
-  <si>
-    <t>0.59%</t>
-  </si>
-  <si>
-    <t>7.03%</t>
-  </si>
-  <si>
-    <t>1.6%</t>
   </si>
   <si>
     <t>Discount</t>
@@ -1133,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1191,25 +1209,25 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>654</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H2">
-        <v>269.87</v>
+        <v>206.15</v>
       </c>
       <c r="I2">
-        <v>4857.66</v>
+        <v>134822.1</v>
       </c>
       <c r="J2">
-        <v>4857.66</v>
+        <v>134822.1</v>
       </c>
       <c r="K2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1229,25 +1247,25 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3">
         <v>117</v>
       </c>
-      <c r="F3">
-        <v>21</v>
-      </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H3">
         <v>269.87</v>
       </c>
       <c r="I3">
-        <v>5667.27</v>
+        <v>31574.79</v>
       </c>
       <c r="J3">
-        <v>5667.27</v>
+        <v>31574.79</v>
       </c>
       <c r="K3" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1267,25 +1285,25 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H4">
-        <v>206.15</v>
+        <v>337.33</v>
       </c>
       <c r="I4">
-        <v>9070.6</v>
+        <v>147413.21</v>
       </c>
       <c r="J4">
-        <v>9070.6</v>
+        <v>147413.21</v>
       </c>
       <c r="K4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1305,25 +1323,25 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F5">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H5">
         <v>131.18</v>
       </c>
       <c r="I5">
-        <v>9576.139999999999</v>
+        <v>38042.2</v>
       </c>
       <c r="J5">
-        <v>9576.139999999999</v>
+        <v>38042.2</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1343,25 +1361,25 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F6">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H6">
-        <v>337.33</v>
+        <v>269.87</v>
       </c>
       <c r="I6">
-        <v>38455.62</v>
+        <v>21319.73</v>
       </c>
       <c r="J6">
-        <v>38455.62</v>
+        <v>21319.73</v>
       </c>
       <c r="K6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1381,25 +1399,25 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F7">
-        <v>852</v>
+        <v>2236</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H7">
         <v>224.89</v>
       </c>
       <c r="I7">
-        <v>191606.28</v>
+        <v>502854.04</v>
       </c>
       <c r="J7">
-        <v>191606.28</v>
+        <v>502854.04</v>
       </c>
       <c r="K7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1419,25 +1437,25 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H8">
         <v>239.88</v>
       </c>
       <c r="I8">
-        <v>719.64</v>
+        <v>1439.28</v>
       </c>
       <c r="J8">
-        <v>719.64</v>
+        <v>1439.28</v>
       </c>
       <c r="K8" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1457,25 +1475,25 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H9">
         <v>112.45</v>
       </c>
       <c r="I9">
-        <v>2136.55</v>
+        <v>3710.85</v>
       </c>
       <c r="J9">
-        <v>2136.55</v>
+        <v>3710.85</v>
       </c>
       <c r="K9" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1495,25 +1513,25 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>731</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H10">
-        <v>104.95</v>
+        <v>239.88</v>
       </c>
       <c r="I10">
-        <v>4932.65</v>
+        <v>175352.28</v>
       </c>
       <c r="J10">
-        <v>4932.65</v>
+        <v>175352.28</v>
       </c>
       <c r="K10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1533,25 +1551,25 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F11">
-        <v>918</v>
+        <v>2109</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H11">
         <v>35.98</v>
       </c>
       <c r="I11">
-        <v>33029.64</v>
+        <v>75881.82000000001</v>
       </c>
       <c r="J11">
-        <v>33029.64</v>
+        <v>75881.82000000001</v>
       </c>
       <c r="K11" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1571,25 +1589,25 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F12">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H12">
         <v>299.85</v>
       </c>
       <c r="I12">
-        <v>12893.55</v>
+        <v>32083.95</v>
       </c>
       <c r="J12">
-        <v>12893.55</v>
+        <v>32083.95</v>
       </c>
       <c r="K12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1609,25 +1627,25 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F13">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H13">
-        <v>239.88</v>
+        <v>104.95</v>
       </c>
       <c r="I13">
-        <v>85157.39999999999</v>
+        <v>14797.95</v>
       </c>
       <c r="J13">
-        <v>85157.39999999999</v>
+        <v>14797.95</v>
       </c>
       <c r="K13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1647,25 +1665,25 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>569</v>
+        <v>1519</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H14">
         <v>29.99</v>
       </c>
       <c r="I14">
-        <v>17064.31</v>
+        <v>45554.81</v>
       </c>
       <c r="J14">
-        <v>17064.31</v>
+        <v>45554.81</v>
       </c>
       <c r="K14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1688,22 +1706,22 @@
         <v>125</v>
       </c>
       <c r="F15">
-        <v>527</v>
+        <v>2527</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H15">
-        <v>262.37</v>
+        <v>359.82</v>
       </c>
       <c r="I15">
-        <v>138268.99</v>
+        <v>909265.14</v>
       </c>
       <c r="J15">
-        <v>138268.99</v>
+        <v>909265.14</v>
       </c>
       <c r="K15" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1723,25 +1741,25 @@
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F16">
-        <v>1233</v>
+        <v>1098</v>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H16">
-        <v>314.84</v>
+        <v>262.37</v>
       </c>
       <c r="I16">
-        <v>388197.72</v>
+        <v>288082.26</v>
       </c>
       <c r="J16">
-        <v>388197.72</v>
+        <v>288082.26</v>
       </c>
       <c r="K16" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1761,25 +1779,25 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F17">
-        <v>1162</v>
+        <v>2684</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H17">
-        <v>359.82</v>
+        <v>314.84</v>
       </c>
       <c r="I17">
-        <v>418110.84</v>
+        <v>845030.5600000001</v>
       </c>
       <c r="J17">
-        <v>418110.84</v>
+        <v>845030.5600000001</v>
       </c>
       <c r="K17" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1799,25 +1817,25 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18">
         <v>121</v>
       </c>
-      <c r="F18">
-        <v>19</v>
-      </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H18">
-        <v>168.67</v>
+        <v>179.91</v>
       </c>
       <c r="I18">
-        <v>3204.73</v>
+        <v>21769.11</v>
       </c>
       <c r="J18">
-        <v>3204.73</v>
+        <v>21769.11</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1837,25 +1855,25 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F19">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H19">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="I19">
-        <v>7016.49</v>
+        <v>11132.22</v>
       </c>
       <c r="J19">
-        <v>7016.49</v>
+        <v>11132.22</v>
       </c>
       <c r="K19" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1875,28 +1893,28 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20">
-        <v>132</v>
+        <v>3077</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H20">
-        <v>432.53</v>
+        <v>314.84</v>
       </c>
       <c r="I20">
-        <v>57093.96</v>
+        <v>968762.6800000001</v>
       </c>
       <c r="J20">
-        <v>57093.96</v>
+        <v>912091.48</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>56671.2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1913,25 +1931,25 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F21">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H21">
-        <v>33.94</v>
+        <v>432.53</v>
       </c>
       <c r="I21">
-        <v>8620.76</v>
+        <v>150952.97</v>
       </c>
       <c r="J21">
-        <v>8620.76</v>
+        <v>150952.97</v>
       </c>
       <c r="K21" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1951,28 +1969,28 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F22">
-        <v>2112</v>
+        <v>5183</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H22">
         <v>45.73</v>
       </c>
       <c r="I22">
-        <v>96581.75999999999</v>
+        <v>237018.59</v>
       </c>
       <c r="J22">
-        <v>82634.11</v>
+        <v>201806.49</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L22">
-        <v>13947.65</v>
+        <v>35212.1</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1989,28 +2007,28 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F23">
-        <v>1143</v>
+        <v>377</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H23">
-        <v>314.84</v>
+        <v>33.94</v>
       </c>
       <c r="I23">
-        <v>359862.12</v>
+        <v>12795.38</v>
       </c>
       <c r="J23">
-        <v>339712.36</v>
+        <v>12795.38</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="L23">
-        <v>20149.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2027,25 +2045,25 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>1369</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H24">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="I24">
-        <v>17991.2</v>
+        <v>51488.09</v>
       </c>
       <c r="J24">
-        <v>17991.2</v>
+        <v>51488.09</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2065,25 +2083,25 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F25">
-        <v>433</v>
+        <v>1678</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H25">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="I25">
-        <v>16285.13</v>
+        <v>38308.74</v>
       </c>
       <c r="J25">
-        <v>16285.13</v>
+        <v>38308.74</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2106,22 +2124,22 @@
         <v>129</v>
       </c>
       <c r="F26">
-        <v>1238</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H26">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="I26">
-        <v>28263.54</v>
+        <v>36881.96</v>
       </c>
       <c r="J26">
-        <v>28263.54</v>
+        <v>36881.96</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2141,25 +2159,25 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H27">
         <v>149.93</v>
       </c>
       <c r="I27">
-        <v>149.93</v>
+        <v>599.72</v>
       </c>
       <c r="J27">
-        <v>149.93</v>
+        <v>599.72</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2179,25 +2197,25 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F28">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="H28">
         <v>224.89</v>
       </c>
       <c r="I28">
-        <v>10794.72</v>
+        <v>11919.17</v>
       </c>
       <c r="J28">
-        <v>10794.72</v>
+        <v>11919.17</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2217,25 +2235,25 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H29">
-        <v>93.7</v>
+        <v>337.33</v>
       </c>
       <c r="I29">
-        <v>1311.8</v>
+        <v>24962.42</v>
       </c>
       <c r="J29">
-        <v>1311.8</v>
+        <v>24962.42</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2255,25 +2273,25 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F30">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H30">
         <v>89.95999999999999</v>
       </c>
       <c r="I30">
-        <v>2338.96</v>
+        <v>6027.32</v>
       </c>
       <c r="J30">
-        <v>2338.96</v>
+        <v>6027.32</v>
       </c>
       <c r="K30" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2293,25 +2311,25 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H31">
-        <v>337.33</v>
+        <v>93.7</v>
       </c>
       <c r="I31">
-        <v>5397.28</v>
+        <v>4591.3</v>
       </c>
       <c r="J31">
-        <v>5397.28</v>
+        <v>4591.3</v>
       </c>
       <c r="K31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2319,10 +2337,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -2331,25 +2349,25 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="H32">
-        <v>449.78</v>
+        <v>179.91</v>
       </c>
       <c r="I32">
-        <v>1349.34</v>
+        <v>1979.01</v>
       </c>
       <c r="J32">
-        <v>1349.34</v>
+        <v>1979.01</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2357,10 +2375,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -2369,25 +2387,25 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F33">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="H33">
-        <v>395.8</v>
+        <v>449.78</v>
       </c>
       <c r="I33">
-        <v>29289.2</v>
+        <v>10344.94</v>
       </c>
       <c r="J33">
-        <v>29289.2</v>
+        <v>10344.94</v>
       </c>
       <c r="K33" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2407,25 +2425,25 @@
         <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F34">
-        <v>462</v>
+        <v>935</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H34">
         <v>337.33</v>
       </c>
       <c r="I34">
-        <v>155846.46</v>
+        <v>315403.55</v>
       </c>
       <c r="J34">
-        <v>155846.46</v>
+        <v>315403.55</v>
       </c>
       <c r="K34" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2433,10 +2451,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -2445,25 +2463,25 @@
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F35">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="H35">
-        <v>247.38</v>
+        <v>395.8</v>
       </c>
       <c r="I35">
-        <v>30180.36</v>
+        <v>54224.6</v>
       </c>
       <c r="J35">
-        <v>30180.36</v>
+        <v>54224.6</v>
       </c>
       <c r="K35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2483,10 +2501,10 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F36">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
         <v>179</v>
@@ -2495,13 +2513,13 @@
         <v>52.47</v>
       </c>
       <c r="I36">
-        <v>1783.98</v>
+        <v>2780.91</v>
       </c>
       <c r="J36">
-        <v>1783.98</v>
+        <v>2780.91</v>
       </c>
       <c r="K36" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2521,25 +2539,25 @@
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F37">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="G37" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H37">
         <v>52.47</v>
       </c>
       <c r="I37">
-        <v>7135.92</v>
+        <v>22037.4</v>
       </c>
       <c r="J37">
-        <v>7135.92</v>
+        <v>22037.4</v>
       </c>
       <c r="K37" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2559,25 +2577,25 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F38">
-        <v>276</v>
+        <v>650</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H38">
         <v>412.3</v>
       </c>
       <c r="I38">
-        <v>113794.8</v>
+        <v>267995</v>
       </c>
       <c r="J38">
-        <v>113794.8</v>
+        <v>267995</v>
       </c>
       <c r="K38" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2597,25 +2615,25 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F39">
-        <v>309</v>
+        <v>732</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H39">
         <v>350.82</v>
       </c>
       <c r="I39">
-        <v>108403.38</v>
+        <v>256800.24</v>
       </c>
       <c r="J39">
-        <v>108403.38</v>
+        <v>256800.24</v>
       </c>
       <c r="K39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2635,25 +2653,25 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F40">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="G40" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H40">
         <v>262.37</v>
       </c>
       <c r="I40">
-        <v>25712.26</v>
+        <v>70052.78999999999</v>
       </c>
       <c r="J40">
-        <v>25712.26</v>
+        <v>70052.78999999999</v>
       </c>
       <c r="K40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2661,10 +2679,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -2673,25 +2691,25 @@
         <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H41">
-        <v>224.89</v>
+        <v>247.38</v>
       </c>
       <c r="I41">
-        <v>3148.46</v>
+        <v>83119.67999999999</v>
       </c>
       <c r="J41">
-        <v>3148.46</v>
+        <v>83119.67999999999</v>
       </c>
       <c r="K41" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2711,25 +2729,25 @@
         <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F42">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="H42">
-        <v>22.49</v>
+        <v>224.89</v>
       </c>
       <c r="I42">
-        <v>2451.41</v>
+        <v>8096.04</v>
       </c>
       <c r="J42">
-        <v>2451.41</v>
+        <v>8096.04</v>
       </c>
       <c r="K42" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2737,10 +2755,10 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -2749,25 +2767,25 @@
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F43">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H43">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="I43">
-        <v>2758.62</v>
+        <v>7759.05</v>
       </c>
       <c r="J43">
-        <v>2758.62</v>
+        <v>7759.05</v>
       </c>
       <c r="K43" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2787,28 +2805,28 @@
         <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F44">
-        <v>504</v>
+        <v>1731</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H44">
-        <v>299.85</v>
+        <v>22.49</v>
       </c>
       <c r="I44">
-        <v>151124.4</v>
+        <v>38930.19</v>
       </c>
       <c r="J44">
-        <v>151124.4</v>
+        <v>38660.31</v>
       </c>
       <c r="K44" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>269.88</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2825,25 +2843,25 @@
         <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F45">
-        <v>662</v>
+        <v>1296</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H45">
-        <v>22.49</v>
+        <v>299.85</v>
       </c>
       <c r="I45">
-        <v>14888.38</v>
+        <v>388605.6</v>
       </c>
       <c r="J45">
-        <v>14888.38</v>
+        <v>388605.6</v>
       </c>
       <c r="K45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -2851,10 +2869,10 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -2863,25 +2881,25 @@
         <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F46">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H46">
-        <v>269.87</v>
+        <v>119.94</v>
       </c>
       <c r="I46">
-        <v>6207.01</v>
+        <v>7076.46</v>
       </c>
       <c r="J46">
-        <v>6207.01</v>
+        <v>7076.46</v>
       </c>
       <c r="K46" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2901,25 +2919,25 @@
         <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F47">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H47">
         <v>269.87</v>
       </c>
       <c r="I47">
-        <v>40210.63</v>
+        <v>11334.54</v>
       </c>
       <c r="J47">
-        <v>40210.63</v>
+        <v>11334.54</v>
       </c>
       <c r="K47" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2927,10 +2945,10 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -2939,22 +2957,22 @@
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F48">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H48">
-        <v>299.85</v>
+        <v>269.87</v>
       </c>
       <c r="I48">
-        <v>16491.75</v>
+        <v>84739.17999999999</v>
       </c>
       <c r="J48">
-        <v>16491.75</v>
+        <v>84739.17999999999</v>
       </c>
       <c r="K48" t="s">
         <v>243</v>
@@ -2965,10 +2983,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -2977,28 +2995,28 @@
         <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F49">
-        <v>845</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="H49">
-        <v>74.95999999999999</v>
+        <v>299.85</v>
       </c>
       <c r="I49">
-        <v>63341.2</v>
+        <v>35082.45</v>
       </c>
       <c r="J49">
-        <v>56744.72</v>
+        <v>35082.45</v>
       </c>
       <c r="K49" t="s">
         <v>244</v>
       </c>
       <c r="L49">
-        <v>6596.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3015,25 +3033,25 @@
         <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H50">
-        <v>191.15</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="I50">
-        <v>764.6</v>
+        <v>224.88</v>
       </c>
       <c r="J50">
-        <v>764.6</v>
+        <v>224.88</v>
       </c>
       <c r="K50" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3053,28 +3071,28 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H51">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="I51">
-        <v>674.65</v>
+        <v>2024.01</v>
       </c>
       <c r="J51">
-        <v>674.65</v>
+        <v>224.89</v>
       </c>
       <c r="K51" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1799.12</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3091,28 +3109,28 @@
         <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="G52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H52">
-        <v>224.89</v>
+        <v>449.78</v>
       </c>
       <c r="I52">
-        <v>2248.9</v>
+        <v>101650.28</v>
       </c>
       <c r="J52">
-        <v>449.78</v>
+        <v>94903.58</v>
       </c>
       <c r="K52" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="L52">
-        <v>1799.12</v>
+        <v>6746.7</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3129,36 +3147,36 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F53">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="H53">
-        <v>449.78</v>
+        <v>134.93</v>
       </c>
       <c r="I53">
-        <v>38231.3</v>
+        <v>944.51</v>
       </c>
       <c r="J53">
-        <v>35982.4</v>
+        <v>944.51</v>
       </c>
       <c r="K53" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="L53">
-        <v>2248.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -3167,36 +3185,36 @@
         <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F54">
-        <v>51</v>
+        <v>1567</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H54">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="I54">
-        <v>11469.39</v>
+        <v>117462.32</v>
       </c>
       <c r="J54">
-        <v>11469.39</v>
+        <v>105093.92</v>
       </c>
       <c r="K54" t="s">
         <v>246</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>12368.4</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -3205,25 +3223,25 @@
         <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F55">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="H55">
-        <v>22.64</v>
+        <v>191.15</v>
       </c>
       <c r="I55">
-        <v>1426.32</v>
+        <v>1338.05</v>
       </c>
       <c r="J55">
-        <v>1426.32</v>
+        <v>1338.05</v>
       </c>
       <c r="K55" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3231,10 +3249,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -3243,25 +3261,25 @@
         <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F56">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="G56" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H56">
-        <v>35.68</v>
+        <v>224.89</v>
       </c>
       <c r="I56">
-        <v>15092.64</v>
+        <v>30360.15</v>
       </c>
       <c r="J56">
-        <v>15092.64</v>
+        <v>30360.15</v>
       </c>
       <c r="K56" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3281,25 +3299,25 @@
         <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F57">
-        <v>371</v>
+        <v>1050</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H57">
-        <v>228.26</v>
+        <v>35.68</v>
       </c>
       <c r="I57">
-        <v>84684.46000000001</v>
+        <v>37464</v>
       </c>
       <c r="J57">
-        <v>84684.46000000001</v>
+        <v>37464</v>
       </c>
       <c r="K57" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3319,25 +3337,25 @@
         <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H58">
-        <v>266.12</v>
+        <v>51.12</v>
       </c>
       <c r="I58">
-        <v>5322.4</v>
+        <v>3936.24</v>
       </c>
       <c r="J58">
-        <v>5322.4</v>
+        <v>3936.24</v>
       </c>
       <c r="K58" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3357,25 +3375,25 @@
         <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G59" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H59">
-        <v>51.12</v>
+        <v>266.12</v>
       </c>
       <c r="I59">
-        <v>817.92</v>
+        <v>14370.48</v>
       </c>
       <c r="J59">
-        <v>817.92</v>
+        <v>14370.48</v>
       </c>
       <c r="K59" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3383,10 +3401,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -3395,25 +3413,25 @@
         <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F60">
-        <v>73</v>
+        <v>1370</v>
       </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="H60">
-        <v>179.91</v>
+        <v>228.26</v>
       </c>
       <c r="I60">
-        <v>13133.43</v>
+        <v>312716.2</v>
       </c>
       <c r="J60">
-        <v>13133.43</v>
+        <v>312716.2</v>
       </c>
       <c r="K60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3421,10 +3439,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -3433,25 +3451,25 @@
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F61">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="G61" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H61">
-        <v>44.98</v>
+        <v>22.64</v>
       </c>
       <c r="I61">
-        <v>674.7</v>
+        <v>3033.76</v>
       </c>
       <c r="J61">
-        <v>674.7</v>
+        <v>3033.76</v>
       </c>
       <c r="K61" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3459,10 +3477,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -3471,25 +3489,25 @@
         <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="F62">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H62">
-        <v>142.43</v>
+        <v>219.13</v>
       </c>
       <c r="I62">
-        <v>16379.45</v>
+        <v>438.26</v>
       </c>
       <c r="J62">
-        <v>16379.45</v>
+        <v>438.26</v>
       </c>
       <c r="K62" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3497,10 +3515,10 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -3509,25 +3527,25 @@
         <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F63">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="H63">
-        <v>187.41</v>
+        <v>179.91</v>
       </c>
       <c r="I63">
-        <v>6371.94</v>
+        <v>35982</v>
       </c>
       <c r="J63">
-        <v>6371.94</v>
+        <v>35982</v>
       </c>
       <c r="K63" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3535,10 +3553,10 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -3547,25 +3565,25 @@
         <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F64">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H64">
-        <v>179.91</v>
+        <v>44.98</v>
       </c>
       <c r="I64">
-        <v>4317.84</v>
+        <v>629.72</v>
       </c>
       <c r="J64">
-        <v>4317.84</v>
+        <v>629.72</v>
       </c>
       <c r="K64" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -3573,10 +3591,10 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -3585,25 +3603,25 @@
         <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F65">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H65">
-        <v>149.93</v>
+        <v>142.43</v>
       </c>
       <c r="I65">
-        <v>20990.2</v>
+        <v>34040.77</v>
       </c>
       <c r="J65">
-        <v>20990.2</v>
+        <v>34040.77</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3611,10 +3629,10 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -3623,25 +3641,25 @@
         <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F66">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H66">
-        <v>56.22</v>
+        <v>187.41</v>
       </c>
       <c r="I66">
-        <v>3429.42</v>
+        <v>9745.32</v>
       </c>
       <c r="J66">
-        <v>3429.42</v>
+        <v>9745.32</v>
       </c>
       <c r="K66" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3649,10 +3667,10 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -3661,25 +3679,25 @@
         <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F67">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H67">
-        <v>359.82</v>
+        <v>179.91</v>
       </c>
       <c r="I67">
-        <v>52893.54</v>
+        <v>15652.17</v>
       </c>
       <c r="J67">
-        <v>52893.54</v>
+        <v>15652.17</v>
       </c>
       <c r="K67" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3687,10 +3705,10 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -3699,25 +3717,25 @@
         <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F68">
-        <v>14</v>
+        <v>420</v>
       </c>
       <c r="G68" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H68">
-        <v>134.93</v>
+        <v>149.93</v>
       </c>
       <c r="I68">
-        <v>1889.02</v>
+        <v>62970.6</v>
       </c>
       <c r="J68">
-        <v>1889.02</v>
+        <v>62970.6</v>
       </c>
       <c r="K68" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3725,10 +3743,10 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
         <v>31</v>
-      </c>
-      <c r="B69" t="s">
-        <v>34</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3737,25 +3755,25 @@
         <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F69">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="H69">
-        <v>187.41</v>
+        <v>56.22</v>
       </c>
       <c r="I69">
-        <v>6934.17</v>
+        <v>4385.16</v>
       </c>
       <c r="J69">
-        <v>6934.17</v>
+        <v>4385.16</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3763,10 +3781,10 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3775,36 +3793,36 @@
         <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F70">
-        <v>682</v>
+        <v>247</v>
       </c>
       <c r="G70" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H70">
-        <v>41.23</v>
+        <v>359.82</v>
       </c>
       <c r="I70">
-        <v>28118.86</v>
+        <v>88875.53999999999</v>
       </c>
       <c r="J70">
-        <v>25851.21</v>
+        <v>88875.53999999999</v>
       </c>
       <c r="K70" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="L70">
-        <v>2267.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -3813,25 +3831,25 @@
         <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F71">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="H71">
-        <v>299.85</v>
+        <v>134.93</v>
       </c>
       <c r="I71">
-        <v>22188.9</v>
+        <v>6071.85</v>
       </c>
       <c r="J71">
-        <v>22188.9</v>
+        <v>6071.85</v>
       </c>
       <c r="K71" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -3839,10 +3857,10 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -3851,36 +3869,36 @@
         <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>2771</v>
       </c>
       <c r="G72" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="H72">
-        <v>134.93</v>
+        <v>41.23</v>
       </c>
       <c r="I72">
-        <v>269.86</v>
+        <v>114248.33</v>
       </c>
       <c r="J72">
-        <v>269.86</v>
+        <v>104641.74</v>
       </c>
       <c r="K72" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>9606.59</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
         <v>34</v>
-      </c>
-      <c r="B73" t="s">
-        <v>37</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3889,25 +3907,25 @@
         <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F73">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="G73" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H73">
-        <v>29.99</v>
+        <v>187.41</v>
       </c>
       <c r="I73">
-        <v>1529.49</v>
+        <v>34483.44</v>
       </c>
       <c r="J73">
-        <v>1529.49</v>
+        <v>34483.44</v>
       </c>
       <c r="K73" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3915,10 +3933,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s">
         <v>35</v>
-      </c>
-      <c r="B74" t="s">
-        <v>38</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3927,36 +3945,36 @@
         <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F74">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="G74" t="s">
+        <v>185</v>
+      </c>
+      <c r="H74">
+        <v>299.85</v>
+      </c>
+      <c r="I74">
+        <v>40479.75</v>
+      </c>
+      <c r="J74">
+        <v>40479.75</v>
+      </c>
+      <c r="K74" t="s">
         <v>203</v>
       </c>
-      <c r="H74">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="I74">
-        <v>20650.9</v>
-      </c>
-      <c r="J74">
-        <v>20081.22</v>
-      </c>
-      <c r="K74" t="s">
-        <v>250</v>
-      </c>
       <c r="L74">
-        <v>569.6799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3965,25 +3983,25 @@
         <v>112</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F75">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H75">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="I75">
-        <v>20015.21</v>
+        <v>2023.95</v>
       </c>
       <c r="J75">
-        <v>20015.21</v>
+        <v>2023.95</v>
       </c>
       <c r="K75" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -3991,10 +4009,10 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -4003,25 +4021,25 @@
         <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F76">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G76" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H76">
-        <v>143.93</v>
+        <v>29.99</v>
       </c>
       <c r="I76">
-        <v>16551.95</v>
+        <v>4618.46</v>
       </c>
       <c r="J76">
-        <v>16551.95</v>
+        <v>4618.46</v>
       </c>
       <c r="K76" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -4041,28 +4059,28 @@
         <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F77">
-        <v>798</v>
+        <v>132</v>
       </c>
       <c r="G77" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H77">
-        <v>314.84</v>
+        <v>143.93</v>
       </c>
       <c r="I77">
-        <v>251242.32</v>
+        <v>18998.76</v>
       </c>
       <c r="J77">
-        <v>238333.88</v>
+        <v>18998.76</v>
       </c>
       <c r="K77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L77">
-        <v>12908.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4079,28 +4097,142 @@
         <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F78">
-        <v>534</v>
+        <v>1657</v>
       </c>
       <c r="G78" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H78">
         <v>104.95</v>
       </c>
       <c r="I78">
-        <v>56043.3</v>
+        <v>173902.15</v>
       </c>
       <c r="J78">
-        <v>54259.15</v>
+        <v>167185.35</v>
       </c>
       <c r="K78" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L78">
-        <v>1784.15</v>
+        <v>6716.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79">
+        <v>1662</v>
+      </c>
+      <c r="G79" t="s">
+        <v>211</v>
+      </c>
+      <c r="H79">
+        <v>314.84</v>
+      </c>
+      <c r="I79">
+        <v>523264.08</v>
+      </c>
+      <c r="J79">
+        <v>499021.4</v>
+      </c>
+      <c r="K79" t="s">
+        <v>257</v>
+      </c>
+      <c r="L79">
+        <v>24242.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80">
+        <v>239</v>
+      </c>
+      <c r="G80" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80">
+        <v>224.89</v>
+      </c>
+      <c r="I80">
+        <v>53748.71</v>
+      </c>
+      <c r="J80">
+        <v>53748.71</v>
+      </c>
+      <c r="K80" t="s">
+        <v>195</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81">
+        <v>599</v>
+      </c>
+      <c r="G81" t="s">
+        <v>212</v>
+      </c>
+      <c r="H81">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="I81">
+        <v>42654.79</v>
+      </c>
+      <c r="J81">
+        <v>40874.54</v>
+      </c>
+      <c r="K81" t="s">
+        <v>258</v>
+      </c>
+      <c r="L81">
+        <v>1780.25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales_Copy2.xlsx
+++ b/Data/item_wise_yesterday_sales_Copy2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="260">
   <si>
     <t>BSL NO</t>
   </si>
@@ -133,21 +133,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 375 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
-    <t>Augment 375 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -163,51 +163,51 @@
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 250mg Capsule</t>
+    <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
+    <t>Ketonic 30mg IM/IV Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
@@ -217,48 +217,48 @@
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
+    <t>Nabumet 750mg FC Tab 24's</t>
+  </si>
+  <si>
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
-    <t>Nabumet 750mg FC Tab 24's</t>
-  </si>
-  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
+    <t>Ontin 60ml Syrup</t>
   </si>
   <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
-    <t>Ontin 60ml Syrup</t>
-  </si>
-  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
@@ -280,48 +280,45 @@
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule</t>
+    <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
-  </si>
-  <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
@@ -331,12 +328,12 @@
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 5mg IM/IV</t>
+  </si>
+  <si>
     <t>Timothy 50mg Tablet</t>
   </si>
   <si>
-    <t>Timothy 5mg IM/IV</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
@@ -370,7 +370,7 @@
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
+    <t>18's</t>
   </si>
   <si>
     <t>1's</t>
@@ -379,9 +379,6 @@
     <t>12's</t>
   </si>
   <si>
-    <t>18's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -433,21 +430,18 @@
     <t>15 gm</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
     <t>15 ml</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -466,6 +460,9 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
     <t>50ml</t>
   </si>
   <si>
@@ -475,322 +472,325 @@
     <t>12 's</t>
   </si>
   <si>
-    <t>20ml</t>
-  </si>
-  <si>
-    <t>1.35%</t>
-  </si>
-  <si>
-    <t>0.24%</t>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>0.95%</t>
+  </si>
+  <si>
+    <t>0.91%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>0.57%</t>
+  </si>
+  <si>
+    <t>4.85%</t>
+  </si>
+  <si>
+    <t>0.02%</t>
+  </si>
+  <si>
+    <t>1.63%</t>
+  </si>
+  <si>
+    <t>4.21%</t>
+  </si>
+  <si>
+    <t>0.22%</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>2.35%</t>
+  </si>
+  <si>
+    <t>5.15%</t>
+  </si>
+  <si>
+    <t>5.09%</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>0.15%</t>
+  </si>
+  <si>
+    <t>0.68%</t>
+  </si>
+  <si>
+    <t>6.7%</t>
   </si>
   <si>
     <t>0.9%</t>
   </si>
   <si>
-    <t>0.6%</t>
+    <t>11.14%</t>
+  </si>
+  <si>
+    <t>3.06%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>1.05%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>0.14%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
   </si>
   <si>
     <t>0.16%</t>
   </si>
   <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>0.32%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>0.72%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>1.46%</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>4.58%</t>
+  </si>
+  <si>
+    <t>2.65%</t>
+  </si>
+  <si>
+    <t>0.09%</t>
+  </si>
+  <si>
+    <t>0.75%</t>
+  </si>
+  <si>
+    <t>3.6%</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>2.19%</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>3.09%</t>
+  </si>
+  <si>
+    <t>0.05%</t>
+  </si>
+  <si>
+    <t>0.37%</t>
+  </si>
+  <si>
+    <t>0.29%</t>
+  </si>
+  <si>
+    <t>0.65%</t>
+  </si>
+  <si>
+    <t>0.77%</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>4.37%</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>1.91%</t>
+  </si>
+  <si>
+    <t>3.38%</t>
+  </si>
+  <si>
+    <t>3.76%</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TP Sales Value</t>
+  </si>
+  <si>
+    <t>Net Sales Value</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>1.85%</t>
+  </si>
+  <si>
+    <t>1.09%</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>6.32%</t>
+  </si>
+  <si>
+    <t>2.27%</t>
+  </si>
+  <si>
+    <t>0.88%</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>0.5%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>9.39%</t>
+  </si>
+  <si>
+    <t>10.61%</t>
+  </si>
+  <si>
+    <t>1.71%</t>
+  </si>
+  <si>
+    <t>11.47%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>0.56%</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>0.19%</t>
+  </si>
+  <si>
+    <t>0.28%</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>0.74%</t>
+  </si>
+  <si>
+    <t>4.33%</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>1.03%</t>
+  </si>
+  <si>
+    <t>3.34%</t>
+  </si>
+  <si>
+    <t>3.49%</t>
+  </si>
+  <si>
+    <t>0.59%</t>
+  </si>
+  <si>
     <t>4.61%</t>
   </si>
   <si>
-    <t>0.01%</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
-    <t>1.51%</t>
-  </si>
-  <si>
-    <t>4.35%</t>
-  </si>
-  <si>
-    <t>0.22%</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
-    <t>5.21%</t>
-  </si>
-  <si>
-    <t>2.27%</t>
-  </si>
-  <si>
-    <t>5.54%</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>0.14%</t>
-  </si>
-  <si>
-    <t>6.35%</t>
-  </si>
-  <si>
-    <t>0.72%</t>
-  </si>
-  <si>
-    <t>10.69%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>3.46%</t>
-  </si>
-  <si>
-    <t>0.34%</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>0.15%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>0.02%</t>
-  </si>
-  <si>
-    <t>0.05%</t>
-  </si>
-  <si>
-    <t>1.93%</t>
-  </si>
-  <si>
-    <t>0.28%</t>
-  </si>
-  <si>
-    <t>0.87%</t>
-  </si>
-  <si>
-    <t>1.34%</t>
+    <t>1.18%</t>
+  </si>
+  <si>
+    <t>1.4%</t>
+  </si>
+  <si>
+    <t>1.38%</t>
+  </si>
+  <si>
+    <t>0.35%</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>2.9%</t>
+  </si>
+  <si>
+    <t>0.64%</t>
+  </si>
+  <si>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>1.61%</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>1.97%</t>
+  </si>
+  <si>
+    <t>6.54%</t>
   </si>
   <si>
     <t>0.55%</t>
-  </si>
-  <si>
-    <t>0.69%</t>
-  </si>
-  <si>
-    <t>0.71%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>0.12%</t>
-  </si>
-  <si>
-    <t>0.09%</t>
-  </si>
-  <si>
-    <t>0.65%</t>
-  </si>
-  <si>
-    <t>0.47%</t>
-  </si>
-  <si>
-    <t>3.23%</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>2.83%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>0.41%</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>0.49%</t>
-  </si>
-  <si>
-    <t>0.18%</t>
-  </si>
-  <si>
-    <t>0.51%</t>
-  </si>
-  <si>
-    <t>5.72%</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>0.32%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>3.42%</t>
-  </si>
-  <si>
-    <t>3.43%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>TP Sales Value</t>
-  </si>
-  <si>
-    <t>Net Sales Value</t>
-  </si>
-  <si>
-    <t>1.63%</t>
-  </si>
-  <si>
-    <t>1.79%</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>0.26%</t>
-  </si>
-  <si>
-    <t>6.1%</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>2.13%</t>
-  </si>
-  <si>
-    <t>0.92%</t>
-  </si>
-  <si>
-    <t>0.39%</t>
-  </si>
-  <si>
-    <t>11.02%</t>
-  </si>
-  <si>
-    <t>3.49%</t>
-  </si>
-  <si>
-    <t>10.25%</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>11.06%</t>
-  </si>
-  <si>
-    <t>1.83%</t>
-  </si>
-  <si>
-    <t>2.45%</t>
-  </si>
-  <si>
-    <t>0.62%</t>
-  </si>
-  <si>
-    <t>0.45%</t>
-  </si>
-  <si>
-    <t>0.3%</t>
-  </si>
-  <si>
-    <t>0.06%</t>
-  </si>
-  <si>
-    <t>3.82%</t>
-  </si>
-  <si>
-    <t>0.66%</t>
-  </si>
-  <si>
-    <t>3.25%</t>
-  </si>
-  <si>
-    <t>3.11%</t>
-  </si>
-  <si>
-    <t>0.85%</t>
-  </si>
-  <si>
-    <t>1.01%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>1.03%</t>
-  </si>
-  <si>
-    <t>0.43%</t>
-  </si>
-  <si>
-    <t>1.15%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>0.37%</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>3.79%</t>
-  </si>
-  <si>
-    <t>0.44%</t>
-  </si>
-  <si>
-    <t>0.19%</t>
-  </si>
-  <si>
-    <t>0.76%</t>
-  </si>
-  <si>
-    <t>1.08%</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-  <si>
-    <t>2.03%</t>
-  </si>
-  <si>
-    <t>6.05%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
   </si>
   <si>
     <t>Discount</t>
@@ -1151,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1209,22 +1209,22 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2">
-        <v>654</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="I2">
-        <v>134822.1</v>
+        <v>24558.17</v>
       </c>
       <c r="J2">
-        <v>134822.1</v>
+        <v>24558.17</v>
       </c>
       <c r="K2" t="s">
         <v>216</v>
@@ -1247,25 +1247,25 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H3">
-        <v>269.87</v>
+        <v>337.33</v>
       </c>
       <c r="I3">
-        <v>31574.79</v>
+        <v>118402.83</v>
       </c>
       <c r="J3">
-        <v>31574.79</v>
+        <v>118402.83</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1285,25 +1285,25 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H4">
-        <v>337.33</v>
+        <v>206.15</v>
       </c>
       <c r="I4">
-        <v>147413.21</v>
+        <v>69678.7</v>
       </c>
       <c r="J4">
-        <v>147413.21</v>
+        <v>69678.7</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5">
-        <v>131.18</v>
+        <v>269.87</v>
       </c>
       <c r="I5">
-        <v>38042.2</v>
+        <v>20240.25</v>
       </c>
       <c r="J5">
-        <v>38042.2</v>
+        <v>20240.25</v>
       </c>
       <c r="K5" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H6">
-        <v>269.87</v>
+        <v>131.18</v>
       </c>
       <c r="I6">
-        <v>21319.73</v>
+        <v>27941.34</v>
       </c>
       <c r="J6">
-        <v>21319.73</v>
+        <v>27941.34</v>
       </c>
       <c r="K6" t="s">
         <v>219</v>
@@ -1399,22 +1399,22 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7">
-        <v>2236</v>
+        <v>1800</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H7">
         <v>224.89</v>
       </c>
       <c r="I7">
-        <v>502854.04</v>
+        <v>404802</v>
       </c>
       <c r="J7">
-        <v>502854.04</v>
+        <v>404802</v>
       </c>
       <c r="K7" t="s">
         <v>220</v>
@@ -1437,25 +1437,25 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H8">
         <v>239.88</v>
       </c>
       <c r="I8">
-        <v>1439.28</v>
+        <v>1679.16</v>
       </c>
       <c r="J8">
-        <v>1439.28</v>
+        <v>1679.16</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1475,25 +1475,25 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9">
         <v>112.45</v>
       </c>
       <c r="I9">
-        <v>3710.85</v>
+        <v>899.6</v>
       </c>
       <c r="J9">
-        <v>3710.85</v>
+        <v>899.6</v>
       </c>
       <c r="K9" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1513,25 +1513,25 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10">
-        <v>731</v>
+        <v>606</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H10">
         <v>239.88</v>
       </c>
       <c r="I10">
-        <v>175352.28</v>
+        <v>145367.28</v>
       </c>
       <c r="J10">
-        <v>175352.28</v>
+        <v>145367.28</v>
       </c>
       <c r="K10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1551,25 +1551,25 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11">
-        <v>2109</v>
+        <v>1562</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H11">
         <v>35.98</v>
       </c>
       <c r="I11">
-        <v>75881.82000000001</v>
+        <v>56200.76</v>
       </c>
       <c r="J11">
-        <v>75881.82000000001</v>
+        <v>56200.76</v>
       </c>
       <c r="K11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1589,25 +1589,25 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H12">
-        <v>299.85</v>
+        <v>104.95</v>
       </c>
       <c r="I12">
-        <v>32083.95</v>
+        <v>8710.85</v>
       </c>
       <c r="J12">
-        <v>32083.95</v>
+        <v>8710.85</v>
       </c>
       <c r="K12" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1627,25 +1627,25 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H13">
-        <v>104.95</v>
+        <v>299.85</v>
       </c>
       <c r="I13">
-        <v>14797.95</v>
+        <v>29685.15</v>
       </c>
       <c r="J13">
-        <v>14797.95</v>
+        <v>29685.15</v>
       </c>
       <c r="K13" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1665,25 +1665,25 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14">
-        <v>1519</v>
+        <v>1064</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H14">
         <v>29.99</v>
       </c>
       <c r="I14">
-        <v>45554.81</v>
+        <v>31909.36</v>
       </c>
       <c r="J14">
-        <v>45554.81</v>
+        <v>31909.36</v>
       </c>
       <c r="K14" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1703,22 +1703,22 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F15">
-        <v>2527</v>
+        <v>873</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H15">
-        <v>359.82</v>
+        <v>262.37</v>
       </c>
       <c r="I15">
-        <v>909265.14</v>
+        <v>229049.01</v>
       </c>
       <c r="J15">
-        <v>909265.14</v>
+        <v>229049.01</v>
       </c>
       <c r="K15" t="s">
         <v>225</v>
@@ -1744,19 +1744,19 @@
         <v>128</v>
       </c>
       <c r="F16">
-        <v>1098</v>
+        <v>1911</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H16">
-        <v>262.37</v>
+        <v>314.84</v>
       </c>
       <c r="I16">
-        <v>288082.26</v>
+        <v>601659.24</v>
       </c>
       <c r="J16">
-        <v>288082.26</v>
+        <v>601659.24</v>
       </c>
       <c r="K16" t="s">
         <v>226</v>
@@ -1779,22 +1779,22 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F17">
-        <v>2684</v>
+        <v>1889</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H17">
-        <v>314.84</v>
+        <v>359.82</v>
       </c>
       <c r="I17">
-        <v>845030.5600000001</v>
+        <v>679699.98</v>
       </c>
       <c r="J17">
-        <v>845030.5600000001</v>
+        <v>679699.98</v>
       </c>
       <c r="K17" t="s">
         <v>227</v>
@@ -1817,25 +1817,25 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H18">
         <v>179.91</v>
       </c>
       <c r="I18">
-        <v>21769.11</v>
+        <v>14212.89</v>
       </c>
       <c r="J18">
-        <v>21769.11</v>
+        <v>14212.89</v>
       </c>
       <c r="K18" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1855,25 +1855,25 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H19">
         <v>168.67</v>
       </c>
       <c r="I19">
-        <v>11132.22</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="J19">
-        <v>11132.22</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1893,28 +1893,28 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>3077</v>
+        <v>254</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H20">
-        <v>314.84</v>
+        <v>432.53</v>
       </c>
       <c r="I20">
-        <v>968762.6800000001</v>
+        <v>109862.62</v>
       </c>
       <c r="J20">
-        <v>912091.48</v>
+        <v>109862.62</v>
       </c>
       <c r="K20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L20">
-        <v>56671.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1931,28 +1931,28 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F21">
-        <v>349</v>
+        <v>2487</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H21">
-        <v>432.53</v>
+        <v>314.84</v>
       </c>
       <c r="I21">
-        <v>150952.97</v>
+        <v>783007.08</v>
       </c>
       <c r="J21">
-        <v>150952.97</v>
+        <v>734836.5600000001</v>
       </c>
       <c r="K21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>48170.52</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1969,28 +1969,28 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F22">
-        <v>5183</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H22">
-        <v>45.73</v>
+        <v>33.94</v>
       </c>
       <c r="I22">
-        <v>237018.59</v>
+        <v>11369.9</v>
       </c>
       <c r="J22">
-        <v>201806.49</v>
+        <v>11369.9</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="L22">
-        <v>35212.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2007,28 +2007,28 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F23">
-        <v>377</v>
+        <v>4133</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H23">
-        <v>33.94</v>
+        <v>45.73</v>
       </c>
       <c r="I23">
-        <v>12795.38</v>
+        <v>189002.09</v>
       </c>
       <c r="J23">
-        <v>12795.38</v>
+        <v>162250.04</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>26752.05</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2045,25 +2045,25 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24">
-        <v>1369</v>
+        <v>1134</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H24">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="I24">
-        <v>51488.09</v>
+        <v>25889.22</v>
       </c>
       <c r="J24">
-        <v>51488.09</v>
+        <v>25889.22</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F25">
-        <v>1678</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H25">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="I25">
-        <v>38308.74</v>
+        <v>35757.51</v>
       </c>
       <c r="J25">
-        <v>38308.74</v>
+        <v>35757.51</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2121,22 +2121,22 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F26">
-        <v>164</v>
+        <v>391</v>
       </c>
       <c r="G26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H26">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="I26">
-        <v>36881.96</v>
+        <v>14705.51</v>
       </c>
       <c r="J26">
-        <v>36881.96</v>
+        <v>14705.51</v>
       </c>
       <c r="K26" t="s">
         <v>233</v>
@@ -2159,25 +2159,25 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="H27">
         <v>149.93</v>
       </c>
       <c r="I27">
-        <v>599.72</v>
+        <v>299.86</v>
       </c>
       <c r="J27">
-        <v>599.72</v>
+        <v>299.86</v>
       </c>
       <c r="K27" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28">
         <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H28">
         <v>224.89</v>
@@ -2215,7 +2215,7 @@
         <v>11919.17</v>
       </c>
       <c r="K28" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2235,25 +2235,25 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H29">
         <v>337.33</v>
       </c>
       <c r="I29">
-        <v>24962.42</v>
+        <v>17878.49</v>
       </c>
       <c r="J29">
-        <v>24962.42</v>
+        <v>17878.49</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2273,25 +2273,25 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F30">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H30">
-        <v>89.95999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="I30">
-        <v>6027.32</v>
+        <v>1079.46</v>
       </c>
       <c r="J30">
-        <v>6027.32</v>
+        <v>1079.46</v>
       </c>
       <c r="K30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2314,22 +2314,22 @@
         <v>119</v>
       </c>
       <c r="F31">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H31">
         <v>93.7</v>
       </c>
       <c r="I31">
-        <v>4591.3</v>
+        <v>3373.2</v>
       </c>
       <c r="J31">
-        <v>4591.3</v>
+        <v>3373.2</v>
       </c>
       <c r="K31" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2349,25 +2349,25 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H32">
-        <v>179.91</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="I32">
-        <v>1979.01</v>
+        <v>5397.6</v>
       </c>
       <c r="J32">
-        <v>1979.01</v>
+        <v>5397.6</v>
       </c>
       <c r="K32" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2387,25 +2387,25 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H33">
         <v>449.78</v>
       </c>
       <c r="I33">
-        <v>10344.94</v>
+        <v>5397.36</v>
       </c>
       <c r="J33">
-        <v>10344.94</v>
+        <v>5397.36</v>
       </c>
       <c r="K33" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2425,25 +2425,25 @@
         <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F34">
-        <v>935</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H34">
-        <v>337.33</v>
+        <v>395.8</v>
       </c>
       <c r="I34">
-        <v>315403.55</v>
+        <v>47100.2</v>
       </c>
       <c r="J34">
-        <v>315403.55</v>
+        <v>47100.2</v>
       </c>
       <c r="K34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2463,25 +2463,25 @@
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F35">
-        <v>137</v>
+        <v>823</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H35">
-        <v>395.8</v>
+        <v>337.33</v>
       </c>
       <c r="I35">
-        <v>54224.6</v>
+        <v>277622.59</v>
       </c>
       <c r="J35">
-        <v>54224.6</v>
+        <v>277622.59</v>
       </c>
       <c r="K35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2501,25 +2501,25 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H36">
         <v>52.47</v>
       </c>
       <c r="I36">
-        <v>2780.91</v>
+        <v>3253.14</v>
       </c>
       <c r="J36">
-        <v>2780.91</v>
+        <v>3253.14</v>
       </c>
       <c r="K36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2539,25 +2539,25 @@
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37">
-        <v>420</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H37">
         <v>52.47</v>
       </c>
       <c r="I37">
-        <v>22037.4</v>
+        <v>13589.73</v>
       </c>
       <c r="J37">
-        <v>22037.4</v>
+        <v>13589.73</v>
       </c>
       <c r="K37" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2577,25 +2577,25 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F38">
-        <v>650</v>
+        <v>202</v>
       </c>
       <c r="G38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H38">
-        <v>412.3</v>
+        <v>262.37</v>
       </c>
       <c r="I38">
-        <v>267995</v>
+        <v>52998.74</v>
       </c>
       <c r="J38">
-        <v>267995</v>
+        <v>52998.74</v>
       </c>
       <c r="K38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2615,25 +2615,25 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F39">
-        <v>732</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="H39">
-        <v>350.82</v>
+        <v>247.38</v>
       </c>
       <c r="I39">
-        <v>256800.24</v>
+        <v>65803.08</v>
       </c>
       <c r="J39">
-        <v>256800.24</v>
+        <v>65803.08</v>
       </c>
       <c r="K39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2653,25 +2653,25 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40">
-        <v>267</v>
+        <v>610</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H40">
-        <v>262.37</v>
+        <v>350.82</v>
       </c>
       <c r="I40">
-        <v>70052.78999999999</v>
+        <v>214000.2</v>
       </c>
       <c r="J40">
-        <v>70052.78999999999</v>
+        <v>214000.2</v>
       </c>
       <c r="K40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2691,25 +2691,25 @@
         <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F41">
-        <v>336</v>
+        <v>543</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H41">
-        <v>247.38</v>
+        <v>412.3</v>
       </c>
       <c r="I41">
-        <v>83119.67999999999</v>
+        <v>223878.9</v>
       </c>
       <c r="J41">
-        <v>83119.67999999999</v>
+        <v>223878.9</v>
       </c>
       <c r="K41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2729,25 +2729,25 @@
         <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F42">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="H42">
-        <v>224.89</v>
+        <v>22.49</v>
       </c>
       <c r="I42">
-        <v>8096.04</v>
+        <v>5217.68</v>
       </c>
       <c r="J42">
-        <v>8096.04</v>
+        <v>5217.68</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F43">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
         <v>190</v>
       </c>
       <c r="H43">
-        <v>22.49</v>
+        <v>224.89</v>
       </c>
       <c r="I43">
-        <v>7759.05</v>
+        <v>4722.69</v>
       </c>
       <c r="J43">
-        <v>7759.05</v>
+        <v>4722.69</v>
       </c>
       <c r="K43" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2805,10 +2805,10 @@
         <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44">
-        <v>1731</v>
+        <v>1699</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
@@ -2817,16 +2817,16 @@
         <v>22.49</v>
       </c>
       <c r="I44">
-        <v>38930.19</v>
+        <v>38210.51</v>
       </c>
       <c r="J44">
-        <v>38660.31</v>
+        <v>38120.55</v>
       </c>
       <c r="K44" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="L44">
-        <v>269.88</v>
+        <v>89.95999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2843,10 +2843,10 @@
         <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F45">
-        <v>1296</v>
+        <v>985</v>
       </c>
       <c r="G45" t="s">
         <v>192</v>
@@ -2855,13 +2855,13 @@
         <v>299.85</v>
       </c>
       <c r="I45">
-        <v>388605.6</v>
+        <v>295352.25</v>
       </c>
       <c r="J45">
-        <v>388605.6</v>
+        <v>295352.25</v>
       </c>
       <c r="K45" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F46">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>193</v>
@@ -2893,13 +2893,13 @@
         <v>119.94</v>
       </c>
       <c r="I46">
-        <v>7076.46</v>
+        <v>4077.96</v>
       </c>
       <c r="J46">
-        <v>7076.46</v>
+        <v>4077.96</v>
       </c>
       <c r="K46" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H47">
         <v>269.87</v>
       </c>
       <c r="I47">
-        <v>11334.54</v>
+        <v>6476.88</v>
       </c>
       <c r="J47">
-        <v>11334.54</v>
+        <v>6476.88</v>
       </c>
       <c r="K47" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2957,25 +2957,25 @@
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H48">
         <v>269.87</v>
       </c>
       <c r="I48">
-        <v>84739.17999999999</v>
+        <v>75293.73</v>
       </c>
       <c r="J48">
-        <v>84739.17999999999</v>
+        <v>75293.73</v>
       </c>
       <c r="K48" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F49">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H49">
         <v>299.85</v>
       </c>
       <c r="I49">
-        <v>35082.45</v>
+        <v>24287.85</v>
       </c>
       <c r="J49">
-        <v>35082.45</v>
+        <v>24287.85</v>
       </c>
       <c r="K49" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3036,22 +3036,22 @@
         <v>119</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="H50">
         <v>74.95999999999999</v>
       </c>
       <c r="I50">
-        <v>224.88</v>
+        <v>374.8</v>
       </c>
       <c r="J50">
-        <v>224.88</v>
+        <v>374.8</v>
       </c>
       <c r="K50" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3071,28 +3071,28 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H51">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="I51">
-        <v>2024.01</v>
+        <v>674.65</v>
       </c>
       <c r="J51">
-        <v>224.89</v>
+        <v>674.65</v>
       </c>
       <c r="K51" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="L51">
-        <v>1799.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3109,28 +3109,28 @@
         <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F52">
-        <v>226</v>
+        <v>1336</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H52">
-        <v>449.78</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="I52">
-        <v>101650.28</v>
+        <v>100146.56</v>
       </c>
       <c r="J52">
-        <v>94903.58</v>
+        <v>89502.24000000001</v>
       </c>
       <c r="K52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L52">
-        <v>6746.7</v>
+        <v>10644.32</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3150,25 +3150,25 @@
         <v>133</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="H53">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="I53">
-        <v>944.51</v>
+        <v>1124.45</v>
       </c>
       <c r="J53">
-        <v>944.51</v>
+        <v>224.89</v>
       </c>
       <c r="K53" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>899.5599999999999</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3185,28 +3185,28 @@
         <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F54">
-        <v>1567</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H54">
-        <v>74.95999999999999</v>
+        <v>191.15</v>
       </c>
       <c r="I54">
-        <v>117462.32</v>
+        <v>2102.65</v>
       </c>
       <c r="J54">
-        <v>105093.92</v>
+        <v>2102.65</v>
       </c>
       <c r="K54" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="L54">
-        <v>12368.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3223,28 +3223,28 @@
         <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="H55">
-        <v>191.15</v>
+        <v>449.78</v>
       </c>
       <c r="I55">
-        <v>1338.05</v>
+        <v>96252.92</v>
       </c>
       <c r="J55">
-        <v>1338.05</v>
+        <v>88156.88</v>
       </c>
       <c r="K55" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>8096.04</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3261,25 +3261,25 @@
         <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H56">
         <v>224.89</v>
       </c>
       <c r="I56">
-        <v>30360.15</v>
+        <v>22264.11</v>
       </c>
       <c r="J56">
-        <v>30360.15</v>
+        <v>22264.11</v>
       </c>
       <c r="K56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3299,25 +3299,25 @@
         <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F57">
-        <v>1050</v>
+        <v>119</v>
       </c>
       <c r="G57" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="H57">
-        <v>35.68</v>
+        <v>22.64</v>
       </c>
       <c r="I57">
-        <v>37464</v>
+        <v>2694.16</v>
       </c>
       <c r="J57">
-        <v>37464</v>
+        <v>2694.16</v>
       </c>
       <c r="K57" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3340,22 +3340,22 @@
         <v>127</v>
       </c>
       <c r="F58">
-        <v>77</v>
+        <v>813</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="H58">
-        <v>51.12</v>
+        <v>228.26</v>
       </c>
       <c r="I58">
-        <v>3936.24</v>
+        <v>185575.38</v>
       </c>
       <c r="J58">
-        <v>3936.24</v>
+        <v>185575.38</v>
       </c>
       <c r="K58" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3375,25 +3375,25 @@
         <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F59">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="H59">
-        <v>266.12</v>
+        <v>51.12</v>
       </c>
       <c r="I59">
-        <v>14370.48</v>
+        <v>3425.04</v>
       </c>
       <c r="J59">
-        <v>14370.48</v>
+        <v>3425.04</v>
       </c>
       <c r="K59" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3413,25 +3413,25 @@
         <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F60">
-        <v>1370</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
         <v>199</v>
       </c>
       <c r="H60">
-        <v>228.26</v>
+        <v>266.12</v>
       </c>
       <c r="I60">
-        <v>312716.2</v>
+        <v>10910.92</v>
       </c>
       <c r="J60">
-        <v>312716.2</v>
+        <v>10910.92</v>
       </c>
       <c r="K60" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3451,25 +3451,25 @@
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F61">
-        <v>134</v>
+        <v>1145</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H61">
-        <v>22.64</v>
+        <v>35.68</v>
       </c>
       <c r="I61">
-        <v>3033.76</v>
+        <v>40853.6</v>
       </c>
       <c r="J61">
-        <v>3033.76</v>
+        <v>40853.6</v>
       </c>
       <c r="K61" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -3489,25 +3489,25 @@
         <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H62">
-        <v>219.13</v>
+        <v>44.98</v>
       </c>
       <c r="I62">
-        <v>438.26</v>
+        <v>764.66</v>
       </c>
       <c r="J62">
-        <v>438.26</v>
+        <v>764.66</v>
       </c>
       <c r="K62" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3527,25 +3527,25 @@
         <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F63">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="G63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H63">
         <v>179.91</v>
       </c>
       <c r="I63">
-        <v>35982</v>
+        <v>24467.76</v>
       </c>
       <c r="J63">
-        <v>35982</v>
+        <v>24467.76</v>
       </c>
       <c r="K63" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -3565,25 +3565,25 @@
         <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F64">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="G64" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H64">
-        <v>44.98</v>
+        <v>142.43</v>
       </c>
       <c r="I64">
-        <v>629.72</v>
+        <v>30622.45</v>
       </c>
       <c r="J64">
-        <v>629.72</v>
+        <v>30622.45</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -3603,25 +3603,25 @@
         <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F65">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="H65">
-        <v>142.43</v>
+        <v>187.41</v>
       </c>
       <c r="I65">
-        <v>34040.77</v>
+        <v>14430.57</v>
       </c>
       <c r="J65">
-        <v>34040.77</v>
+        <v>14430.57</v>
       </c>
       <c r="K65" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -3644,22 +3644,22 @@
         <v>128</v>
       </c>
       <c r="F66">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G66" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H66">
-        <v>187.41</v>
+        <v>179.91</v>
       </c>
       <c r="I66">
-        <v>9745.32</v>
+        <v>11154.42</v>
       </c>
       <c r="J66">
-        <v>9745.32</v>
+        <v>11154.42</v>
       </c>
       <c r="K66" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -3679,25 +3679,25 @@
         <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F67">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H67">
-        <v>179.91</v>
+        <v>56.22</v>
       </c>
       <c r="I67">
-        <v>15652.17</v>
+        <v>6015.54</v>
       </c>
       <c r="J67">
-        <v>15652.17</v>
+        <v>6015.54</v>
       </c>
       <c r="K67" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3717,25 +3717,25 @@
         <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F68">
-        <v>420</v>
+        <v>243</v>
       </c>
       <c r="G68" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="H68">
         <v>149.93</v>
       </c>
       <c r="I68">
-        <v>62970.6</v>
+        <v>36432.99</v>
       </c>
       <c r="J68">
-        <v>62970.6</v>
+        <v>36432.99</v>
       </c>
       <c r="K68" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3755,25 +3755,25 @@
         <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F69">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="G69" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="H69">
-        <v>56.22</v>
+        <v>359.82</v>
       </c>
       <c r="I69">
-        <v>4385.16</v>
+        <v>102908.52</v>
       </c>
       <c r="J69">
-        <v>4385.16</v>
+        <v>102908.52</v>
       </c>
       <c r="K69" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3793,25 +3793,25 @@
         <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H70">
-        <v>359.82</v>
+        <v>134.93</v>
       </c>
       <c r="I70">
-        <v>88875.53999999999</v>
+        <v>3643.11</v>
       </c>
       <c r="J70">
-        <v>88875.53999999999</v>
+        <v>3643.11</v>
       </c>
       <c r="K70" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -3831,28 +3831,28 @@
         <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F71">
-        <v>45</v>
+        <v>1620</v>
       </c>
       <c r="G71" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H71">
-        <v>134.93</v>
+        <v>41.23</v>
       </c>
       <c r="I71">
-        <v>6071.85</v>
+        <v>66792.60000000001</v>
       </c>
       <c r="J71">
-        <v>6071.85</v>
+        <v>61185.32</v>
       </c>
       <c r="K71" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>5607.28</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3869,36 +3869,36 @@
         <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F72">
-        <v>2771</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="H72">
-        <v>41.23</v>
+        <v>187.41</v>
       </c>
       <c r="I72">
-        <v>114248.33</v>
+        <v>17241.72</v>
       </c>
       <c r="J72">
-        <v>104641.74</v>
+        <v>17241.72</v>
       </c>
       <c r="K72" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="L72">
-        <v>9606.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3907,25 +3907,25 @@
         <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F73">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="G73" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="H73">
-        <v>187.41</v>
+        <v>299.85</v>
       </c>
       <c r="I73">
-        <v>34483.44</v>
+        <v>29685.15</v>
       </c>
       <c r="J73">
-        <v>34483.44</v>
+        <v>29685.15</v>
       </c>
       <c r="K73" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3945,25 +3945,25 @@
         <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F74">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="G74" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H74">
-        <v>299.85</v>
+        <v>134.93</v>
       </c>
       <c r="I74">
-        <v>40479.75</v>
+        <v>809.58</v>
       </c>
       <c r="J74">
-        <v>40479.75</v>
+        <v>809.58</v>
       </c>
       <c r="K74" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3986,22 +3986,22 @@
         <v>147</v>
       </c>
       <c r="F75">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="G75" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H75">
-        <v>134.93</v>
+        <v>29.99</v>
       </c>
       <c r="I75">
-        <v>2023.95</v>
+        <v>3628.79</v>
       </c>
       <c r="J75">
-        <v>2023.95</v>
+        <v>3628.79</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -4021,28 +4021,28 @@
         <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F76">
-        <v>154</v>
+        <v>708</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H76">
-        <v>29.99</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="I76">
-        <v>4618.46</v>
+        <v>50416.68</v>
       </c>
       <c r="J76">
-        <v>4618.46</v>
+        <v>47853.12</v>
       </c>
       <c r="K76" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>2563.56</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4059,22 +4059,22 @@
         <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F77">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G77" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="H77">
         <v>143.93</v>
       </c>
       <c r="I77">
-        <v>18998.76</v>
+        <v>23028.8</v>
       </c>
       <c r="J77">
-        <v>18998.76</v>
+        <v>23028.8</v>
       </c>
       <c r="K77" t="s">
         <v>255</v>
@@ -4097,10 +4097,10 @@
         <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F78">
-        <v>1657</v>
+        <v>1253</v>
       </c>
       <c r="G78" t="s">
         <v>210</v>
@@ -4109,16 +4109,16 @@
         <v>104.95</v>
       </c>
       <c r="I78">
-        <v>173902.15</v>
+        <v>131502.35</v>
       </c>
       <c r="J78">
-        <v>167185.35</v>
+        <v>126464.75</v>
       </c>
       <c r="K78" t="s">
         <v>256</v>
       </c>
       <c r="L78">
-        <v>6716.8</v>
+        <v>5037.6</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4135,10 +4135,10 @@
         <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F79">
-        <v>1662</v>
+        <v>1396</v>
       </c>
       <c r="G79" t="s">
         <v>211</v>
@@ -4147,16 +4147,16 @@
         <v>314.84</v>
       </c>
       <c r="I79">
-        <v>523264.08</v>
+        <v>439516.64</v>
       </c>
       <c r="J79">
-        <v>499021.4</v>
+        <v>419052.04</v>
       </c>
       <c r="K79" t="s">
         <v>257</v>
       </c>
       <c r="L79">
-        <v>24242.68</v>
+        <v>20464.6</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4176,63 +4176,25 @@
         <v>120</v>
       </c>
       <c r="F80">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="G80" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H80">
         <v>224.89</v>
       </c>
       <c r="I80">
-        <v>53748.71</v>
+        <v>35307.73</v>
       </c>
       <c r="J80">
-        <v>53748.71</v>
+        <v>35307.73</v>
       </c>
       <c r="K80" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="L80">
         <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81">
-        <v>80</v>
-      </c>
-      <c r="D81" t="s">
-        <v>118</v>
-      </c>
-      <c r="E81" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81">
-        <v>599</v>
-      </c>
-      <c r="G81" t="s">
-        <v>212</v>
-      </c>
-      <c r="H81">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="I81">
-        <v>42654.79</v>
-      </c>
-      <c r="J81">
-        <v>40874.54</v>
-      </c>
-      <c r="K81" t="s">
-        <v>258</v>
-      </c>
-      <c r="L81">
-        <v>1780.25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales_Copy2.xlsx
+++ b/Data/item_wise_yesterday_sales_Copy2.xlsx
@@ -136,18 +136,18 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -157,18 +157,18 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
@@ -181,51 +181,51 @@
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
+    <t>Fenobac 5mg Tablet</t>
+  </si>
+  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 5mg Tablet</t>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
+    <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
-    <t>Levomax 500mg Tablet - 20's</t>
+    <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
+    <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -235,39 +235,39 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -277,42 +277,42 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
@@ -355,21 +355,21 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -412,12 +412,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -427,15 +427,15 @@
     <t>24's</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
+    <t>36's</t>
+  </si>
+  <si>
     <t>15 gm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
-    <t>36's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -460,51 +460,51 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>20ml</t>
   </si>
   <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>50ml</t>
   </si>
   <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
-  </si>
-  <si>
     <t>0.25%</t>
   </si>
   <si>
+    <t>0.91%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>0.57%</t>
+  </si>
+  <si>
     <t>0.95%</t>
   </si>
   <si>
-    <t>0.91%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>0.57%</t>
-  </si>
-  <si>
     <t>4.85%</t>
   </si>
   <si>
     <t>0.02%</t>
   </si>
   <si>
+    <t>0.22%</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
     <t>1.63%</t>
   </si>
   <si>
     <t>4.21%</t>
   </si>
   <si>
-    <t>0.22%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
     <t>2.87%</t>
   </si>
   <si>
@@ -517,45 +517,45 @@
     <t>5.09%</t>
   </si>
   <si>
+    <t>0.15%</t>
+  </si>
+  <si>
     <t>0.21%</t>
   </si>
   <si>
-    <t>0.15%</t>
+    <t>11.14%</t>
+  </si>
+  <si>
+    <t>6.7%</t>
   </si>
   <si>
     <t>0.68%</t>
   </si>
   <si>
-    <t>6.7%</t>
-  </si>
-  <si>
     <t>0.9%</t>
   </si>
   <si>
-    <t>11.14%</t>
-  </si>
-  <si>
     <t>3.06%</t>
   </si>
   <si>
+    <t>1.05%</t>
+  </si>
+  <si>
     <t>0.43%</t>
   </si>
   <si>
-    <t>1.05%</t>
+    <t>0.14%</t>
   </si>
   <si>
     <t>0.01%</t>
   </si>
   <si>
-    <t>0.14%</t>
+    <t>0.16%</t>
   </si>
   <si>
     <t>0.1%</t>
   </si>
   <si>
-    <t>0.16%</t>
-  </si>
-  <si>
     <t>0.03%</t>
   </si>
   <si>
@@ -565,39 +565,39 @@
     <t>2.22%</t>
   </si>
   <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>1.46%</t>
+  </si>
+  <si>
+    <t>0.72%</t>
+  </si>
+  <si>
     <t>0.17%</t>
   </si>
   <si>
-    <t>0.7%</t>
-  </si>
-  <si>
-    <t>0.54%</t>
-  </si>
-  <si>
-    <t>0.72%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.46%</t>
-  </si>
-  <si>
     <t>0.63%</t>
   </si>
   <si>
     <t>0.06%</t>
   </si>
   <si>
+    <t>0.09%</t>
+  </si>
+  <si>
+    <t>2.65%</t>
+  </si>
+  <si>
     <t>4.58%</t>
   </si>
   <si>
-    <t>2.65%</t>
-  </si>
-  <si>
-    <t>0.09%</t>
-  </si>
-  <si>
     <t>0.75%</t>
   </si>
   <si>
@@ -607,18 +607,18 @@
     <t>0.58%</t>
   </si>
   <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>3.09%</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
     <t>2.19%</t>
   </si>
   <si>
-    <t>0.18%</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>3.09%</t>
-  </si>
-  <si>
     <t>0.05%</t>
   </si>
   <si>
@@ -643,18 +643,18 @@
     <t>0.33%</t>
   </si>
   <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>3.76%</t>
+  </si>
+  <si>
     <t>1.91%</t>
   </si>
   <si>
     <t>3.38%</t>
   </si>
   <si>
-    <t>3.76%</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
     <t>TP</t>
   </si>
   <si>
@@ -667,27 +667,27 @@
     <t>0.38%</t>
   </si>
   <si>
+    <t>1.09%</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
     <t>1.85%</t>
   </si>
   <si>
-    <t>1.09%</t>
-  </si>
-  <si>
-    <t>0.44%</t>
-  </si>
-  <si>
     <t>6.32%</t>
   </si>
   <si>
+    <t>0.46%</t>
+  </si>
+  <si>
     <t>2.27%</t>
   </si>
   <si>
     <t>0.88%</t>
   </si>
   <si>
-    <t>0.46%</t>
-  </si>
-  <si>
     <t>0.5%</t>
   </si>
   <si>
@@ -700,30 +700,30 @@
     <t>10.61%</t>
   </si>
   <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>11.47%</t>
+  </si>
+  <si>
     <t>1.71%</t>
   </si>
   <si>
-    <t>11.47%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
     <t>0.4%</t>
   </si>
   <si>
+    <t>0.23%</t>
+  </si>
+  <si>
     <t>0.56%</t>
   </si>
   <si>
-    <t>0.23%</t>
+    <t>0.19%</t>
   </si>
   <si>
     <t>0.0%</t>
   </si>
   <si>
-    <t>0.19%</t>
-  </si>
-  <si>
     <t>0.28%</t>
   </si>
   <si>
@@ -739,21 +739,21 @@
     <t>0.83%</t>
   </si>
   <si>
+    <t>3.34%</t>
+  </si>
+  <si>
+    <t>3.49%</t>
+  </si>
+  <si>
     <t>1.03%</t>
   </si>
   <si>
-    <t>3.34%</t>
-  </si>
-  <si>
-    <t>3.49%</t>
+    <t>4.61%</t>
   </si>
   <si>
     <t>0.59%</t>
   </si>
   <si>
-    <t>4.61%</t>
-  </si>
-  <si>
     <t>1.18%</t>
   </si>
   <si>
@@ -769,28 +769,28 @@
     <t>0.04%</t>
   </si>
   <si>
+    <t>0.64%</t>
+  </si>
+  <si>
     <t>2.9%</t>
   </si>
   <si>
-    <t>0.64%</t>
-  </si>
-  <si>
     <t>0.48%</t>
   </si>
   <si>
     <t>1.61%</t>
   </si>
   <si>
+    <t>0.55%</t>
+  </si>
+  <si>
+    <t>6.54%</t>
+  </si>
+  <si>
+    <t>1.97%</t>
+  </si>
+  <si>
     <t>0.36%</t>
-  </si>
-  <si>
-    <t>1.97%</t>
-  </si>
-  <si>
-    <t>6.54%</t>
-  </si>
-  <si>
-    <t>0.55%</t>
   </si>
   <si>
     <t>Discount</t>
@@ -1247,22 +1247,22 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
         <v>153</v>
       </c>
       <c r="H3">
-        <v>337.33</v>
+        <v>206.15</v>
       </c>
       <c r="I3">
-        <v>118402.83</v>
+        <v>69678.7</v>
       </c>
       <c r="J3">
-        <v>118402.83</v>
+        <v>69678.7</v>
       </c>
       <c r="K3" t="s">
         <v>217</v>
@@ -1285,25 +1285,25 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>154</v>
       </c>
       <c r="H4">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="I4">
-        <v>69678.7</v>
+        <v>20240.25</v>
       </c>
       <c r="J4">
-        <v>69678.7</v>
+        <v>20240.25</v>
       </c>
       <c r="K4" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
         <v>155</v>
       </c>
       <c r="H5">
-        <v>269.87</v>
+        <v>131.18</v>
       </c>
       <c r="I5">
-        <v>20240.25</v>
+        <v>27941.34</v>
       </c>
       <c r="J5">
-        <v>20240.25</v>
+        <v>27941.34</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="G6" t="s">
         <v>156</v>
       </c>
       <c r="H6">
-        <v>131.18</v>
+        <v>337.33</v>
       </c>
       <c r="I6">
-        <v>27941.34</v>
+        <v>118402.83</v>
       </c>
       <c r="J6">
-        <v>27941.34</v>
+        <v>118402.83</v>
       </c>
       <c r="K6" t="s">
         <v>219</v>
@@ -1493,7 +1493,7 @@
         <v>899.6</v>
       </c>
       <c r="K9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         <v>124</v>
       </c>
       <c r="F10">
-        <v>606</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>159</v>
       </c>
       <c r="H10">
-        <v>239.88</v>
+        <v>104.95</v>
       </c>
       <c r="I10">
-        <v>145367.28</v>
+        <v>8710.85</v>
       </c>
       <c r="J10">
-        <v>145367.28</v>
+        <v>8710.85</v>
       </c>
       <c r="K10" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1551,25 +1551,25 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11">
-        <v>1562</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
         <v>160</v>
       </c>
       <c r="H11">
-        <v>35.98</v>
+        <v>299.85</v>
       </c>
       <c r="I11">
-        <v>56200.76</v>
+        <v>29685.15</v>
       </c>
       <c r="J11">
-        <v>56200.76</v>
+        <v>29685.15</v>
       </c>
       <c r="K11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1592,22 +1592,22 @@
         <v>124</v>
       </c>
       <c r="F12">
-        <v>83</v>
+        <v>606</v>
       </c>
       <c r="G12" t="s">
         <v>161</v>
       </c>
       <c r="H12">
-        <v>104.95</v>
+        <v>239.88</v>
       </c>
       <c r="I12">
-        <v>8710.85</v>
+        <v>145367.28</v>
       </c>
       <c r="J12">
-        <v>8710.85</v>
+        <v>145367.28</v>
       </c>
       <c r="K12" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1627,22 +1627,22 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13">
-        <v>99</v>
+        <v>1562</v>
       </c>
       <c r="G13" t="s">
         <v>162</v>
       </c>
       <c r="H13">
-        <v>299.85</v>
+        <v>35.98</v>
       </c>
       <c r="I13">
-        <v>29685.15</v>
+        <v>56200.76</v>
       </c>
       <c r="J13">
-        <v>29685.15</v>
+        <v>56200.76</v>
       </c>
       <c r="K13" t="s">
         <v>223</v>
@@ -1817,25 +1817,25 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F18">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
         <v>167</v>
       </c>
       <c r="H18">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="I18">
-        <v>14212.89</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="J18">
-        <v>14212.89</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1855,25 +1855,25 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F19">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
         <v>168</v>
       </c>
       <c r="H19">
-        <v>168.67</v>
+        <v>179.91</v>
       </c>
       <c r="I19">
-        <v>9614.190000000001</v>
+        <v>14212.89</v>
       </c>
       <c r="J19">
-        <v>9614.190000000001</v>
+        <v>14212.89</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1893,28 +1893,28 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F20">
-        <v>254</v>
+        <v>4133</v>
       </c>
       <c r="G20" t="s">
         <v>169</v>
       </c>
       <c r="H20">
-        <v>432.53</v>
+        <v>45.73</v>
       </c>
       <c r="I20">
-        <v>109862.62</v>
+        <v>189002.09</v>
       </c>
       <c r="J20">
-        <v>109862.62</v>
+        <v>162250.04</v>
       </c>
       <c r="K20" t="s">
         <v>228</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>26752.05</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1969,25 +1969,25 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F22">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="G22" t="s">
         <v>171</v>
       </c>
       <c r="H22">
-        <v>33.94</v>
+        <v>432.53</v>
       </c>
       <c r="I22">
-        <v>11369.9</v>
+        <v>109862.62</v>
       </c>
       <c r="J22">
-        <v>11369.9</v>
+        <v>109862.62</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2007,28 +2007,28 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F23">
-        <v>4133</v>
+        <v>335</v>
       </c>
       <c r="G23" t="s">
         <v>172</v>
       </c>
       <c r="H23">
-        <v>45.73</v>
+        <v>33.94</v>
       </c>
       <c r="I23">
-        <v>189002.09</v>
+        <v>11369.9</v>
       </c>
       <c r="J23">
-        <v>162250.04</v>
+        <v>11369.9</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="L23">
-        <v>26752.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2083,22 +2083,22 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F25">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="G25" t="s">
         <v>174</v>
       </c>
       <c r="H25">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="I25">
-        <v>35757.51</v>
+        <v>14705.51</v>
       </c>
       <c r="J25">
-        <v>35757.51</v>
+        <v>14705.51</v>
       </c>
       <c r="K25" t="s">
         <v>232</v>
@@ -2121,22 +2121,22 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F26">
-        <v>391</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
         <v>175</v>
       </c>
       <c r="H26">
-        <v>37.61</v>
+        <v>224.89</v>
       </c>
       <c r="I26">
-        <v>14705.51</v>
+        <v>35757.51</v>
       </c>
       <c r="J26">
-        <v>14705.51</v>
+        <v>35757.51</v>
       </c>
       <c r="K26" t="s">
         <v>233</v>
@@ -2162,19 +2162,19 @@
         <v>132</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>176</v>
       </c>
       <c r="H27">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="I27">
-        <v>299.86</v>
+        <v>11919.17</v>
       </c>
       <c r="J27">
-        <v>299.86</v>
+        <v>11919.17</v>
       </c>
       <c r="K27" t="s">
         <v>234</v>
@@ -2200,19 +2200,19 @@
         <v>133</v>
       </c>
       <c r="F28">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
         <v>177</v>
       </c>
       <c r="H28">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="I28">
-        <v>11919.17</v>
+        <v>299.86</v>
       </c>
       <c r="J28">
-        <v>11919.17</v>
+        <v>299.86</v>
       </c>
       <c r="K28" t="s">
         <v>235</v>
@@ -2238,22 +2238,22 @@
         <v>128</v>
       </c>
       <c r="F29">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H29">
-        <v>337.33</v>
+        <v>179.91</v>
       </c>
       <c r="I29">
-        <v>17878.49</v>
+        <v>1079.46</v>
       </c>
       <c r="J29">
-        <v>17878.49</v>
+        <v>1079.46</v>
       </c>
       <c r="K29" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -2276,22 +2276,22 @@
         <v>128</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="H30">
-        <v>179.91</v>
+        <v>337.33</v>
       </c>
       <c r="I30">
-        <v>1079.46</v>
+        <v>17878.49</v>
       </c>
       <c r="J30">
-        <v>1079.46</v>
+        <v>17878.49</v>
       </c>
       <c r="K30" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2311,25 +2311,25 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F31">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
         <v>178</v>
       </c>
       <c r="H31">
-        <v>93.7</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="I31">
-        <v>3373.2</v>
+        <v>5397.6</v>
       </c>
       <c r="J31">
-        <v>3373.2</v>
+        <v>5397.6</v>
       </c>
       <c r="K31" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2349,25 +2349,25 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>179</v>
       </c>
       <c r="H32">
-        <v>89.95999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="I32">
-        <v>5397.6</v>
+        <v>3373.2</v>
       </c>
       <c r="J32">
-        <v>5397.6</v>
+        <v>3373.2</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F36">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="G36" t="s">
         <v>183</v>
@@ -2513,13 +2513,13 @@
         <v>52.47</v>
       </c>
       <c r="I36">
-        <v>3253.14</v>
+        <v>13589.73</v>
       </c>
       <c r="J36">
-        <v>3253.14</v>
+        <v>13589.73</v>
       </c>
       <c r="K36" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2539,25 +2539,25 @@
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F37">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="G37" t="s">
         <v>184</v>
       </c>
       <c r="H37">
-        <v>52.47</v>
+        <v>262.37</v>
       </c>
       <c r="I37">
-        <v>13589.73</v>
+        <v>52998.74</v>
       </c>
       <c r="J37">
-        <v>13589.73</v>
+        <v>52998.74</v>
       </c>
       <c r="K37" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2580,22 +2580,22 @@
         <v>138</v>
       </c>
       <c r="F38">
-        <v>202</v>
+        <v>610</v>
       </c>
       <c r="G38" t="s">
         <v>185</v>
       </c>
       <c r="H38">
-        <v>262.37</v>
+        <v>350.82</v>
       </c>
       <c r="I38">
-        <v>52998.74</v>
+        <v>214000.2</v>
       </c>
       <c r="J38">
-        <v>52998.74</v>
+        <v>214000.2</v>
       </c>
       <c r="K38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2615,25 +2615,25 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F39">
-        <v>266</v>
+        <v>543</v>
       </c>
       <c r="G39" t="s">
         <v>186</v>
       </c>
       <c r="H39">
-        <v>247.38</v>
+        <v>412.3</v>
       </c>
       <c r="I39">
-        <v>65803.08</v>
+        <v>223878.9</v>
       </c>
       <c r="J39">
-        <v>65803.08</v>
+        <v>223878.9</v>
       </c>
       <c r="K39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2653,25 +2653,25 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F40">
-        <v>610</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
         <v>187</v>
       </c>
       <c r="H40">
-        <v>350.82</v>
+        <v>247.38</v>
       </c>
       <c r="I40">
-        <v>214000.2</v>
+        <v>65803.08</v>
       </c>
       <c r="J40">
-        <v>214000.2</v>
+        <v>65803.08</v>
       </c>
       <c r="K40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2691,25 +2691,25 @@
         <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F41">
-        <v>543</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
         <v>188</v>
       </c>
       <c r="H41">
-        <v>412.3</v>
+        <v>52.47</v>
       </c>
       <c r="I41">
-        <v>223878.9</v>
+        <v>3253.14</v>
       </c>
       <c r="J41">
-        <v>223878.9</v>
+        <v>3253.14</v>
       </c>
       <c r="K41" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2805,28 +2805,28 @@
         <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F44">
-        <v>1699</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>191</v>
       </c>
       <c r="H44">
-        <v>22.49</v>
+        <v>119.94</v>
       </c>
       <c r="I44">
-        <v>38210.51</v>
+        <v>4077.96</v>
       </c>
       <c r="J44">
-        <v>38120.55</v>
+        <v>4077.96</v>
       </c>
       <c r="K44" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="L44">
-        <v>89.95999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2861,7 +2861,7 @@
         <v>295352.25</v>
       </c>
       <c r="K45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -2881,28 +2881,28 @@
         <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F46">
-        <v>34</v>
+        <v>1699</v>
       </c>
       <c r="G46" t="s">
         <v>193</v>
       </c>
       <c r="H46">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="I46">
-        <v>4077.96</v>
+        <v>38210.51</v>
       </c>
       <c r="J46">
-        <v>4077.96</v>
+        <v>38120.55</v>
       </c>
       <c r="K46" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>89.95999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2937,7 +2937,7 @@
         <v>6476.88</v>
       </c>
       <c r="K47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H49">
         <v>299.85</v>
@@ -3033,25 +3033,25 @@
         <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H50">
-        <v>74.95999999999999</v>
+        <v>191.15</v>
       </c>
       <c r="I50">
-        <v>374.8</v>
+        <v>2102.65</v>
       </c>
       <c r="J50">
-        <v>374.8</v>
+        <v>2102.65</v>
       </c>
       <c r="K50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H51">
         <v>134.93</v>
@@ -3089,7 +3089,7 @@
         <v>674.65</v>
       </c>
       <c r="K51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -3147,28 +3147,28 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H53">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="I53">
-        <v>1124.45</v>
+        <v>374.8</v>
       </c>
       <c r="J53">
-        <v>224.89</v>
+        <v>374.8</v>
       </c>
       <c r="K53" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="L53">
-        <v>899.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3185,28 +3185,28 @@
         <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F54">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H54">
-        <v>191.15</v>
+        <v>224.89</v>
       </c>
       <c r="I54">
-        <v>2102.65</v>
+        <v>1124.45</v>
       </c>
       <c r="J54">
-        <v>2102.65</v>
+        <v>224.89</v>
       </c>
       <c r="K54" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>899.5599999999999</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3267,7 +3267,7 @@
         <v>99</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H56">
         <v>224.89</v>
@@ -3299,25 +3299,25 @@
         <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F57">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="H57">
-        <v>22.64</v>
+        <v>266.12</v>
       </c>
       <c r="I57">
-        <v>2694.16</v>
+        <v>10910.92</v>
       </c>
       <c r="J57">
-        <v>2694.16</v>
+        <v>10910.92</v>
       </c>
       <c r="K57" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3337,25 +3337,25 @@
         <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F58">
-        <v>813</v>
+        <v>119</v>
       </c>
       <c r="G58" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H58">
-        <v>228.26</v>
+        <v>22.64</v>
       </c>
       <c r="I58">
-        <v>185575.38</v>
+        <v>2694.16</v>
       </c>
       <c r="J58">
-        <v>185575.38</v>
+        <v>2694.16</v>
       </c>
       <c r="K58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3378,22 +3378,22 @@
         <v>126</v>
       </c>
       <c r="F59">
-        <v>67</v>
+        <v>1145</v>
       </c>
       <c r="G59" t="s">
         <v>198</v>
       </c>
       <c r="H59">
-        <v>51.12</v>
+        <v>35.68</v>
       </c>
       <c r="I59">
-        <v>3425.04</v>
+        <v>40853.6</v>
       </c>
       <c r="J59">
-        <v>3425.04</v>
+        <v>40853.6</v>
       </c>
       <c r="K59" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3413,25 +3413,25 @@
         <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F60">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
         <v>199</v>
       </c>
       <c r="H60">
-        <v>266.12</v>
+        <v>51.12</v>
       </c>
       <c r="I60">
-        <v>10910.92</v>
+        <v>3425.04</v>
       </c>
       <c r="J60">
-        <v>10910.92</v>
+        <v>3425.04</v>
       </c>
       <c r="K60" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3451,22 +3451,22 @@
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F61">
-        <v>1145</v>
+        <v>813</v>
       </c>
       <c r="G61" t="s">
         <v>200</v>
       </c>
       <c r="H61">
-        <v>35.68</v>
+        <v>228.26</v>
       </c>
       <c r="I61">
-        <v>40853.6</v>
+        <v>185575.38</v>
       </c>
       <c r="J61">
-        <v>40853.6</v>
+        <v>185575.38</v>
       </c>
       <c r="K61" t="s">
         <v>252</v>
@@ -3507,7 +3507,7 @@
         <v>764.66</v>
       </c>
       <c r="K62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H65">
         <v>187.41</v>
@@ -3621,7 +3621,7 @@
         <v>14430.57</v>
       </c>
       <c r="K65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>62</v>
       </c>
       <c r="G66" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H66">
         <v>179.91</v>
@@ -3659,7 +3659,7 @@
         <v>11154.42</v>
       </c>
       <c r="K66" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>6015.54</v>
       </c>
       <c r="K67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>36432.99</v>
       </c>
       <c r="K68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>61185.32</v>
       </c>
       <c r="K71" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L71">
         <v>5607.28</v>
@@ -3887,7 +3887,7 @@
         <v>17241.72</v>
       </c>
       <c r="K72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>99</v>
       </c>
       <c r="G73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H73">
         <v>299.85</v>
@@ -3925,7 +3925,7 @@
         <v>29685.15</v>
       </c>
       <c r="K73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>809.58</v>
       </c>
       <c r="K74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -4021,28 +4021,28 @@
         <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="F76">
-        <v>708</v>
+        <v>157</v>
       </c>
       <c r="G76" t="s">
         <v>209</v>
       </c>
       <c r="H76">
-        <v>71.20999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="I76">
-        <v>50416.68</v>
+        <v>35307.73</v>
       </c>
       <c r="J76">
-        <v>47853.12</v>
+        <v>35307.73</v>
       </c>
       <c r="K76" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="L76">
-        <v>2563.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4059,28 +4059,28 @@
         <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F77">
-        <v>160</v>
+        <v>1396</v>
       </c>
       <c r="G77" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="H77">
-        <v>143.93</v>
+        <v>314.84</v>
       </c>
       <c r="I77">
-        <v>23028.8</v>
+        <v>439516.64</v>
       </c>
       <c r="J77">
-        <v>23028.8</v>
+        <v>419052.04</v>
       </c>
       <c r="K77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>20464.6</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4097,28 +4097,28 @@
         <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F78">
-        <v>1253</v>
+        <v>708</v>
       </c>
       <c r="G78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H78">
-        <v>104.95</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="I78">
-        <v>131502.35</v>
+        <v>50416.68</v>
       </c>
       <c r="J78">
-        <v>126464.75</v>
+        <v>47853.12</v>
       </c>
       <c r="K78" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="L78">
-        <v>5037.6</v>
+        <v>2563.56</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4135,28 +4135,28 @@
         <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F79">
-        <v>1396</v>
+        <v>1253</v>
       </c>
       <c r="G79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H79">
-        <v>314.84</v>
+        <v>104.95</v>
       </c>
       <c r="I79">
-        <v>439516.64</v>
+        <v>131502.35</v>
       </c>
       <c r="J79">
-        <v>419052.04</v>
+        <v>126464.75</v>
       </c>
       <c r="K79" t="s">
         <v>257</v>
       </c>
       <c r="L79">
-        <v>20464.6</v>
+        <v>5037.6</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4173,22 +4173,22 @@
         <v>117</v>
       </c>
       <c r="E80" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F80">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G80" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="H80">
-        <v>224.89</v>
+        <v>143.93</v>
       </c>
       <c r="I80">
-        <v>35307.73</v>
+        <v>23028.8</v>
       </c>
       <c r="J80">
-        <v>35307.73</v>
+        <v>23028.8</v>
       </c>
       <c r="K80" t="s">
         <v>258</v>

--- a/Data/item_wise_yesterday_sales_Copy2.xlsx
+++ b/Data/item_wise_yesterday_sales_Copy2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="258">
   <si>
     <t>BSL NO</t>
   </si>
@@ -136,18 +136,18 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -175,16 +175,22 @@
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet 40's</t>
+    <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 10mg Tablet</t>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 100ml Dry Suspension</t>
@@ -193,39 +199,33 @@
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -235,28 +235,31 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
     <t>Naprox 250mg Tablet</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
+    <t>Ontin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
-    <t>Ontin 10mg Tablet</t>
+    <t>Oradin 60ml Suspension</t>
   </si>
   <si>
     <t>Oradin FT 10mg Tablet</t>
@@ -265,66 +268,60 @@
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
+    <t>Osticare Tablet 30's</t>
   </si>
   <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
-    <t>Osticare Tablet 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
+    <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
-    <t>Stiba 10mg Tablet - 30's</t>
+    <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
@@ -340,12 +337,12 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti Tablet</t>
+  </si>
+  <si>
     <t>Toti 100ml Syrup</t>
   </si>
   <si>
-    <t>Toti Tablet</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -355,15 +352,15 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
@@ -427,12 +424,12 @@
     <t>24's</t>
   </si>
   <si>
+    <t>36's</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 50 's</t>
   </si>
   <si>
-    <t>36's</t>
-  </si>
-  <si>
     <t>15 gm</t>
   </si>
   <si>
@@ -460,337 +457,334 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
     <t>12 's</t>
   </si>
   <si>
-    <t>20ml</t>
-  </si>
-  <si>
     <t>35ml</t>
   </si>
   <si>
     <t>50ml</t>
   </si>
   <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>0.91%</t>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>0.8%</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>0.37%</t>
+  </si>
+  <si>
+    <t>4.39%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>0.19%</t>
+  </si>
+  <si>
+    <t>1.57%</t>
+  </si>
+  <si>
+    <t>3.31%</t>
+  </si>
+  <si>
+    <t>3.03%</t>
+  </si>
+  <si>
+    <t>2.37%</t>
+  </si>
+  <si>
+    <t>5.62%</t>
+  </si>
+  <si>
+    <t>6.0%</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
+    <t>0.16%</t>
+  </si>
+  <si>
+    <t>0.73%</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>10.38%</t>
+  </si>
+  <si>
+    <t>7.01%</t>
+  </si>
+  <si>
+    <t>2.45%</t>
+  </si>
+  <si>
+    <t>3.3%</t>
   </si>
   <si>
     <t>0.2%</t>
   </si>
   <si>
-    <t>0.57%</t>
-  </si>
-  <si>
-    <t>0.95%</t>
-  </si>
-  <si>
-    <t>4.85%</t>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>0.05%</t>
+  </si>
+  <si>
+    <t>0.24%</t>
+  </si>
+  <si>
+    <t>2.2%</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>0.12%</t>
+  </si>
+  <si>
+    <t>0.56%</t>
+  </si>
+  <si>
+    <t>3.2%</t>
+  </si>
+  <si>
+    <t>0.09%</t>
+  </si>
+  <si>
+    <t>2.77%</t>
+  </si>
+  <si>
+    <t>0.68%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>0.22%</t>
+  </si>
+  <si>
+    <t>0.74%</t>
+  </si>
+  <si>
+    <t>4.36%</t>
   </si>
   <si>
     <t>0.02%</t>
   </si>
   <si>
-    <t>0.22%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>1.63%</t>
-  </si>
-  <si>
-    <t>4.21%</t>
-  </si>
-  <si>
-    <t>2.87%</t>
-  </si>
-  <si>
-    <t>2.35%</t>
-  </si>
-  <si>
-    <t>5.15%</t>
-  </si>
-  <si>
-    <t>5.09%</t>
+    <t>2.05%</t>
+  </si>
+  <si>
+    <t>2.25%</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>0.45%</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>0.78%</t>
+  </si>
+  <si>
+    <t>0.75%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>4.65%</t>
+  </si>
+  <si>
+    <t>1.28%</t>
+  </si>
+  <si>
+    <t>4.33%</t>
+  </si>
+  <si>
+    <t>0.47%</t>
+  </si>
+  <si>
+    <t>4.29%</t>
+  </si>
+  <si>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>Monthly Sales Target</t>
+  </si>
+  <si>
+    <t>MTD Sales Target</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TP Sales Value</t>
+  </si>
+  <si>
+    <t>Net Sales Value</t>
+  </si>
+  <si>
+    <t>0.28%</t>
+  </si>
+  <si>
+    <t>1.51%</t>
+  </si>
+  <si>
+    <t>0.32%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>5.55%</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>0.35%</t>
+  </si>
+  <si>
+    <t>2.12%</t>
+  </si>
+  <si>
+    <t>0.51%</t>
+  </si>
+  <si>
+    <t>3.5%</t>
+  </si>
+  <si>
+    <t>11.38%</t>
+  </si>
+  <si>
+    <t>10.62%</t>
   </si>
   <si>
     <t>0.15%</t>
   </si>
   <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>11.14%</t>
-  </si>
-  <si>
-    <t>6.7%</t>
-  </si>
-  <si>
-    <t>0.68%</t>
-  </si>
-  <si>
-    <t>0.9%</t>
-  </si>
-  <si>
-    <t>3.06%</t>
-  </si>
-  <si>
-    <t>1.05%</t>
-  </si>
-  <si>
-    <t>0.43%</t>
-  </si>
-  <si>
-    <t>0.14%</t>
-  </si>
-  <si>
-    <t>0.01%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>0.1%</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>0.32%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>0.7%</t>
+    <t>1.78%</t>
+  </si>
+  <si>
+    <t>2.28%</t>
+  </si>
+  <si>
+    <t>11.66%</t>
+  </si>
+  <si>
+    <t>0.52%</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>0.26%</t>
+  </si>
+  <si>
+    <t>0.33%</t>
   </si>
   <si>
     <t>0.54%</t>
   </si>
   <si>
+    <t>4.18%</t>
+  </si>
+  <si>
+    <t>0.94%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>2.95%</t>
+  </si>
+  <si>
+    <t>0.86%</t>
+  </si>
+  <si>
+    <t>4.67%</t>
+  </si>
+  <si>
+    <t>1.04%</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>1.71%</t>
+  </si>
+  <si>
     <t>1.64%</t>
   </si>
   <si>
-    <t>1.46%</t>
-  </si>
-  <si>
-    <t>0.72%</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>0.63%</t>
-  </si>
-  <si>
-    <t>0.06%</t>
-  </si>
-  <si>
-    <t>0.09%</t>
-  </si>
-  <si>
-    <t>2.65%</t>
-  </si>
-  <si>
-    <t>4.58%</t>
-  </si>
-  <si>
-    <t>0.75%</t>
-  </si>
-  <si>
-    <t>3.6%</t>
-  </si>
-  <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>3.09%</t>
-  </si>
-  <si>
-    <t>0.18%</t>
-  </si>
-  <si>
-    <t>2.19%</t>
-  </si>
-  <si>
-    <t>0.05%</t>
-  </si>
-  <si>
-    <t>0.37%</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>0.65%</t>
-  </si>
-  <si>
-    <t>0.77%</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
-    <t>4.37%</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>3.76%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>3.38%</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>TP Sales Value</t>
-  </si>
-  <si>
-    <t>Net Sales Value</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>1.09%</t>
-  </si>
-  <si>
-    <t>0.44%</t>
-  </si>
-  <si>
-    <t>1.85%</t>
-  </si>
-  <si>
-    <t>6.32%</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>2.27%</t>
-  </si>
-  <si>
-    <t>0.88%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>9.39%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>11.47%</t>
-  </si>
-  <si>
-    <t>1.71%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-  <si>
-    <t>0.56%</t>
-  </si>
-  <si>
-    <t>0.19%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>0.28%</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>0.74%</t>
-  </si>
-  <si>
-    <t>4.33%</t>
-  </si>
-  <si>
-    <t>0.83%</t>
-  </si>
-  <si>
-    <t>3.34%</t>
-  </si>
-  <si>
-    <t>3.49%</t>
-  </si>
-  <si>
-    <t>1.03%</t>
-  </si>
-  <si>
-    <t>4.61%</t>
-  </si>
-  <si>
-    <t>0.59%</t>
-  </si>
-  <si>
-    <t>1.18%</t>
-  </si>
-  <si>
-    <t>1.4%</t>
-  </si>
-  <si>
-    <t>1.38%</t>
-  </si>
-  <si>
-    <t>0.35%</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>0.64%</t>
-  </si>
-  <si>
-    <t>2.9%</t>
-  </si>
-  <si>
-    <t>0.48%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>0.55%</t>
-  </si>
-  <si>
-    <t>6.54%</t>
-  </si>
-  <si>
-    <t>1.97%</t>
-  </si>
-  <si>
-    <t>0.36%</t>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>2.89%</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>0.66%</t>
+  </si>
+  <si>
+    <t>0.99%</t>
+  </si>
+  <si>
+    <t>0.49%</t>
+  </si>
+  <si>
+    <t>7.31%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>0.39%</t>
   </si>
   <si>
     <t>Discount</t>
@@ -1151,13 +1145,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,22 +1174,31 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1209,31 +1212,40 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2">
+        <v>2133</v>
+      </c>
+      <c r="I2">
+        <v>1706</v>
+      </c>
+      <c r="J2">
         <v>269.87</v>
       </c>
-      <c r="I2">
-        <v>24558.17</v>
-      </c>
-      <c r="J2">
-        <v>24558.17</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>19430.64</v>
+      </c>
+      <c r="L2">
+        <v>19430.64</v>
+      </c>
+      <c r="M2" t="s">
         <v>216</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1247,31 +1259,40 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3">
-        <v>206.15</v>
+        <v>13331</v>
       </c>
       <c r="I3">
-        <v>69678.7</v>
+        <v>10664</v>
       </c>
       <c r="J3">
-        <v>69678.7</v>
-      </c>
-      <c r="K3" t="s">
+        <v>337.33</v>
+      </c>
+      <c r="K3">
+        <v>105921.62</v>
+      </c>
+      <c r="L3">
+        <v>105921.62</v>
+      </c>
+      <c r="M3" t="s">
         <v>217</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1285,31 +1306,40 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4">
-        <v>269.87</v>
+        <v>10665</v>
       </c>
       <c r="I4">
-        <v>20240.25</v>
+        <v>8532</v>
       </c>
       <c r="J4">
-        <v>20240.25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>181</v>
+        <v>131.18</v>
+      </c>
+      <c r="K4">
+        <v>31745.56</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>31745.56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1326,28 +1356,37 @@
         <v>119</v>
       </c>
       <c r="F5">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5">
-        <v>131.18</v>
+        <v>2133</v>
       </c>
       <c r="I5">
-        <v>27941.34</v>
+        <v>1706</v>
       </c>
       <c r="J5">
-        <v>27941.34</v>
-      </c>
-      <c r="K5" t="s">
+        <v>269.87</v>
+      </c>
+      <c r="K5">
+        <v>22129.34</v>
+      </c>
+      <c r="L5">
+        <v>22129.34</v>
+      </c>
+      <c r="M5" t="s">
         <v>218</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1364,28 +1403,37 @@
         <v>118</v>
       </c>
       <c r="F6">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6">
-        <v>337.33</v>
+        <v>2126</v>
       </c>
       <c r="I6">
-        <v>118402.83</v>
+        <v>1700</v>
       </c>
       <c r="J6">
-        <v>118402.83</v>
-      </c>
-      <c r="K6" t="s">
+        <v>206.15</v>
+      </c>
+      <c r="K6">
+        <v>30304.05</v>
+      </c>
+      <c r="L6">
+        <v>30304.05</v>
+      </c>
+      <c r="M6" t="s">
         <v>219</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1399,31 +1447,40 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7">
-        <v>1800</v>
+        <v>1730</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7">
+        <v>58000</v>
+      </c>
+      <c r="I7">
+        <v>46400</v>
+      </c>
+      <c r="J7">
         <v>224.89</v>
       </c>
-      <c r="I7">
-        <v>404802</v>
-      </c>
-      <c r="J7">
-        <v>404802</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>389059.7</v>
+      </c>
+      <c r="L7">
+        <v>389059.7</v>
+      </c>
+      <c r="M7" t="s">
         <v>220</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1437,31 +1494,40 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>239.88</v>
       </c>
-      <c r="I8">
-        <v>1679.16</v>
-      </c>
-      <c r="J8">
-        <v>1679.16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>180</v>
+      <c r="K8">
+        <v>239.88</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>239.88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1475,31 +1541,40 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
         <v>158</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>112.45</v>
       </c>
-      <c r="I9">
-        <v>899.6</v>
-      </c>
-      <c r="J9">
-        <v>899.6</v>
-      </c>
-      <c r="K9" t="s">
-        <v>177</v>
+      <c r="K9">
+        <v>2811.25</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2811.25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1513,31 +1588,40 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
         <v>159</v>
       </c>
       <c r="H10">
+        <v>1808</v>
+      </c>
+      <c r="I10">
+        <v>1446</v>
+      </c>
+      <c r="J10">
         <v>104.95</v>
       </c>
-      <c r="I10">
-        <v>8710.85</v>
-      </c>
-      <c r="J10">
-        <v>8710.85</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>7976.2</v>
+      </c>
+      <c r="L10">
+        <v>7976.2</v>
+      </c>
+      <c r="M10" t="s">
         <v>176</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1551,31 +1635,40 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H11">
+        <v>2269</v>
+      </c>
+      <c r="I11">
+        <v>1815</v>
+      </c>
+      <c r="J11">
         <v>299.85</v>
       </c>
-      <c r="I11">
-        <v>29685.15</v>
-      </c>
-      <c r="J11">
-        <v>29685.15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>221</v>
+      <c r="K11">
+        <v>24587.7</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>24587.7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1589,31 +1682,40 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H12">
+        <v>15463</v>
+      </c>
+      <c r="I12">
+        <v>12370</v>
+      </c>
+      <c r="J12">
         <v>239.88</v>
       </c>
-      <c r="I12">
-        <v>145367.28</v>
-      </c>
-      <c r="J12">
-        <v>145367.28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>222</v>
+      <c r="K12">
+        <v>148485.72</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>148485.72</v>
+      </c>
+      <c r="M12" t="s">
+        <v>223</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1627,31 +1729,40 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13">
-        <v>1562</v>
+        <v>1306</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13">
+        <v>53320</v>
+      </c>
+      <c r="I13">
+        <v>42656</v>
+      </c>
+      <c r="J13">
         <v>35.98</v>
       </c>
-      <c r="I13">
-        <v>56200.76</v>
-      </c>
-      <c r="J13">
-        <v>56200.76</v>
-      </c>
-      <c r="K13" t="s">
-        <v>223</v>
+      <c r="K13">
+        <v>46989.88</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>46989.88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>182</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1665,31 +1776,40 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14">
-        <v>1064</v>
+        <v>1196</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H14">
+        <v>31991</v>
+      </c>
+      <c r="I14">
+        <v>25593</v>
+      </c>
+      <c r="J14">
         <v>29.99</v>
       </c>
-      <c r="I14">
-        <v>31909.36</v>
-      </c>
-      <c r="J14">
-        <v>31909.36</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="K14">
+        <v>35868.04</v>
+      </c>
+      <c r="L14">
+        <v>35868.04</v>
+      </c>
+      <c r="M14" t="s">
         <v>224</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1703,31 +1823,40 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15">
-        <v>873</v>
+        <v>934</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15">
+        <v>43180</v>
+      </c>
+      <c r="I15">
+        <v>34544</v>
+      </c>
+      <c r="J15">
         <v>262.37</v>
       </c>
-      <c r="I15">
-        <v>229049.01</v>
-      </c>
-      <c r="J15">
-        <v>229049.01</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="K15">
+        <v>245053.58</v>
+      </c>
+      <c r="L15">
+        <v>245053.58</v>
+      </c>
+      <c r="M15" t="s">
         <v>225</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1741,31 +1870,40 @@
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F16">
-        <v>1911</v>
+        <v>2217</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H16">
-        <v>314.84</v>
+        <v>85502</v>
       </c>
       <c r="I16">
-        <v>601659.24</v>
+        <v>68401</v>
       </c>
       <c r="J16">
-        <v>601659.24</v>
-      </c>
-      <c r="K16" t="s">
+        <v>359.82</v>
+      </c>
+      <c r="K16">
+        <v>797720.9399999999</v>
+      </c>
+      <c r="L16">
+        <v>797720.9399999999</v>
+      </c>
+      <c r="M16" t="s">
         <v>226</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1779,31 +1917,40 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F17">
-        <v>1889</v>
+        <v>2365</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17">
-        <v>359.82</v>
+        <v>85749</v>
       </c>
       <c r="I17">
-        <v>679699.98</v>
+        <v>68599</v>
       </c>
       <c r="J17">
-        <v>679699.98</v>
-      </c>
-      <c r="K17" t="s">
+        <v>314.84</v>
+      </c>
+      <c r="K17">
+        <v>744596.6</v>
+      </c>
+      <c r="L17">
+        <v>744596.6</v>
+      </c>
+      <c r="M17" t="s">
         <v>227</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1817,31 +1964,40 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18">
-        <v>168.67</v>
+        <v>4266</v>
       </c>
       <c r="I18">
-        <v>9614.190000000001</v>
+        <v>3412</v>
       </c>
       <c r="J18">
-        <v>9614.190000000001</v>
-      </c>
-      <c r="K18" t="s">
-        <v>167</v>
+        <v>179.91</v>
+      </c>
+      <c r="K18">
+        <v>19250.37</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19250.37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>166</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1855,31 +2011,40 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F19">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19">
-        <v>179.91</v>
+        <v>1662</v>
       </c>
       <c r="I19">
-        <v>14212.89</v>
+        <v>1329</v>
       </c>
       <c r="J19">
-        <v>14212.89</v>
-      </c>
-      <c r="K19" t="s">
-        <v>159</v>
+        <v>168.67</v>
+      </c>
+      <c r="K19">
+        <v>10626.21</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10626.21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1893,31 +2058,40 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F20">
-        <v>4133</v>
+        <v>289</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20">
-        <v>45.73</v>
+        <v>10131</v>
       </c>
       <c r="I20">
-        <v>189002.09</v>
+        <v>8104</v>
       </c>
       <c r="J20">
-        <v>162250.04</v>
-      </c>
-      <c r="K20" t="s">
-        <v>228</v>
+        <v>432.53</v>
+      </c>
+      <c r="K20">
+        <v>125001.17</v>
       </c>
       <c r="L20">
-        <v>26752.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>125001.17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>229</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1931,31 +2105,40 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F21">
-        <v>2487</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H21">
-        <v>314.84</v>
+        <v>15997</v>
       </c>
       <c r="I21">
-        <v>783007.08</v>
+        <v>12797</v>
       </c>
       <c r="J21">
-        <v>734836.5600000001</v>
-      </c>
-      <c r="K21" t="s">
-        <v>229</v>
+        <v>33.94</v>
+      </c>
+      <c r="K21">
+        <v>5057.06</v>
       </c>
       <c r="L21">
-        <v>48170.52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5057.06</v>
+      </c>
+      <c r="M21" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1969,31 +2152,40 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F22">
-        <v>254</v>
+        <v>4093</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H22">
-        <v>432.53</v>
+        <v>143972</v>
       </c>
       <c r="I22">
-        <v>109862.62</v>
+        <v>115177</v>
       </c>
       <c r="J22">
-        <v>109862.62</v>
-      </c>
-      <c r="K22" t="s">
+        <v>45.73</v>
+      </c>
+      <c r="K22">
+        <v>187172.89</v>
+      </c>
+      <c r="L22">
+        <v>159506.24</v>
+      </c>
+      <c r="M22" t="s">
         <v>230</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="N22">
+        <v>27666.65</v>
+      </c>
+      <c r="O22">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>9</v>
       </c>
@@ -2007,31 +2199,40 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F23">
-        <v>335</v>
+        <v>2766</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23">
-        <v>33.94</v>
+        <v>95981</v>
       </c>
       <c r="I23">
-        <v>11369.9</v>
+        <v>76784</v>
       </c>
       <c r="J23">
-        <v>11369.9</v>
-      </c>
-      <c r="K23" t="s">
-        <v>199</v>
+        <v>314.84</v>
+      </c>
+      <c r="K23">
+        <v>870847.4399999999</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>817009.8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>231</v>
+      </c>
+      <c r="N23">
+        <v>53837.64</v>
+      </c>
+      <c r="O23">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2045,31 +2246,40 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F24">
-        <v>1134</v>
+        <v>965</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H24">
-        <v>22.83</v>
+        <v>34775</v>
       </c>
       <c r="I24">
-        <v>25889.22</v>
+        <v>27820</v>
       </c>
       <c r="J24">
-        <v>25889.22</v>
-      </c>
-      <c r="K24" t="s">
-        <v>231</v>
+        <v>37.61</v>
+      </c>
+      <c r="K24">
+        <v>36293.65</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>36327.25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>232</v>
+      </c>
+      <c r="N24">
+        <v>-33.6</v>
+      </c>
+      <c r="O24">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>11</v>
       </c>
@@ -2083,31 +2293,40 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F25">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H25">
-        <v>37.61</v>
+        <v>4266</v>
       </c>
       <c r="I25">
-        <v>14705.51</v>
+        <v>3413</v>
       </c>
       <c r="J25">
-        <v>14705.51</v>
-      </c>
-      <c r="K25" t="s">
-        <v>232</v>
+        <v>224.89</v>
+      </c>
+      <c r="K25">
+        <v>32609.05</v>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>32609.05</v>
+      </c>
+      <c r="M25" t="s">
+        <v>208</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>11</v>
       </c>
@@ -2121,31 +2340,40 @@
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F26">
-        <v>159</v>
+        <v>1301</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H26">
-        <v>224.89</v>
+        <v>55456</v>
       </c>
       <c r="I26">
-        <v>35757.51</v>
+        <v>44364</v>
       </c>
       <c r="J26">
-        <v>35757.51</v>
-      </c>
-      <c r="K26" t="s">
+        <v>22.83</v>
+      </c>
+      <c r="K26">
+        <v>29701.83</v>
+      </c>
+      <c r="L26">
+        <v>29738.63</v>
+      </c>
+      <c r="M26" t="s">
         <v>233</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="N26">
+        <v>-36.8</v>
+      </c>
+      <c r="O26">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>13</v>
       </c>
@@ -2159,31 +2387,40 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H27">
+        <v>2686</v>
+      </c>
+      <c r="I27">
+        <v>2149</v>
+      </c>
+      <c r="J27">
         <v>224.89</v>
       </c>
-      <c r="I27">
-        <v>11919.17</v>
-      </c>
-      <c r="J27">
-        <v>11919.17</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="K27">
+        <v>17991.2</v>
+      </c>
+      <c r="L27">
+        <v>17991.2</v>
+      </c>
+      <c r="M27" t="s">
         <v>234</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>13</v>
       </c>
@@ -2197,31 +2434,40 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H28">
+        <v>128</v>
+      </c>
+      <c r="I28">
+        <v>102</v>
+      </c>
+      <c r="J28">
         <v>149.93</v>
       </c>
-      <c r="I28">
-        <v>299.86</v>
-      </c>
-      <c r="J28">
-        <v>299.86</v>
-      </c>
-      <c r="K28" t="s">
-        <v>235</v>
+      <c r="K28">
+        <v>449.79</v>
       </c>
       <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>449.79</v>
+      </c>
+      <c r="M28" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2235,31 +2481,40 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H29">
-        <v>179.91</v>
+        <v>1971</v>
       </c>
       <c r="I29">
-        <v>1079.46</v>
+        <v>1577</v>
       </c>
       <c r="J29">
-        <v>1079.46</v>
-      </c>
-      <c r="K29" t="s">
-        <v>158</v>
+        <v>89.95999999999999</v>
+      </c>
+      <c r="K29">
+        <v>6657.04</v>
       </c>
       <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>6657.04</v>
+      </c>
+      <c r="M29" t="s">
+        <v>189</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>14</v>
       </c>
@@ -2273,31 +2528,40 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F30">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
         <v>176</v>
       </c>
       <c r="H30">
-        <v>337.33</v>
+        <v>1632</v>
       </c>
       <c r="I30">
-        <v>17878.49</v>
+        <v>1306</v>
       </c>
       <c r="J30">
-        <v>17878.49</v>
-      </c>
-      <c r="K30" t="s">
-        <v>236</v>
+        <v>93.7</v>
+      </c>
+      <c r="K30">
+        <v>4122.8</v>
       </c>
       <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>4122.8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2311,31 +2575,40 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H31">
-        <v>89.95999999999999</v>
+        <v>1815</v>
       </c>
       <c r="I31">
-        <v>5397.6</v>
+        <v>1452</v>
       </c>
       <c r="J31">
-        <v>5397.6</v>
-      </c>
-      <c r="K31" t="s">
-        <v>237</v>
+        <v>337.33</v>
+      </c>
+      <c r="K31">
+        <v>23275.77</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>23275.77</v>
+      </c>
+      <c r="M31" t="s">
+        <v>235</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2349,31 +2622,40 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F32">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H32">
-        <v>93.7</v>
+        <v>380</v>
       </c>
       <c r="I32">
-        <v>3373.2</v>
+        <v>304</v>
       </c>
       <c r="J32">
-        <v>3373.2</v>
-      </c>
-      <c r="K32" t="s">
-        <v>201</v>
+        <v>179.91</v>
+      </c>
+      <c r="K32">
+        <v>2338.83</v>
       </c>
       <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>2338.83</v>
+      </c>
+      <c r="M32" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>15</v>
       </c>
@@ -2387,31 +2669,40 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H33">
+        <v>537</v>
+      </c>
+      <c r="I33">
+        <v>429</v>
+      </c>
+      <c r="J33">
         <v>449.78</v>
       </c>
-      <c r="I33">
-        <v>5397.36</v>
-      </c>
-      <c r="J33">
-        <v>5397.36</v>
-      </c>
-      <c r="K33" t="s">
-        <v>237</v>
+      <c r="K33">
+        <v>8096.04</v>
       </c>
       <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>8096.04</v>
+      </c>
+      <c r="M33" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>16</v>
       </c>
@@ -2425,31 +2716,40 @@
         <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H34">
+        <v>5858</v>
+      </c>
+      <c r="I34">
+        <v>4686</v>
+      </c>
+      <c r="J34">
         <v>395.8</v>
       </c>
-      <c r="I34">
-        <v>47100.2</v>
-      </c>
-      <c r="J34">
-        <v>47100.2</v>
-      </c>
-      <c r="K34" t="s">
-        <v>238</v>
+      <c r="K34">
+        <v>37601</v>
       </c>
       <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>37601</v>
+      </c>
+      <c r="M34" t="s">
+        <v>236</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>16</v>
       </c>
@@ -2463,31 +2763,40 @@
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35">
-        <v>823</v>
+        <v>868</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H35">
+        <v>33060</v>
+      </c>
+      <c r="I35">
+        <v>26448</v>
+      </c>
+      <c r="J35">
         <v>337.33</v>
       </c>
-      <c r="I35">
-        <v>277622.59</v>
-      </c>
-      <c r="J35">
-        <v>277622.59</v>
-      </c>
-      <c r="K35" t="s">
-        <v>239</v>
+      <c r="K35">
+        <v>292802.44</v>
       </c>
       <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>292802.44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>237</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>17</v>
       </c>
@@ -2501,31 +2810,40 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F36">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H36">
-        <v>52.47</v>
+        <v>10665</v>
       </c>
       <c r="I36">
-        <v>13589.73</v>
+        <v>8532</v>
       </c>
       <c r="J36">
-        <v>13589.73</v>
-      </c>
-      <c r="K36" t="s">
-        <v>168</v>
+        <v>247.38</v>
+      </c>
+      <c r="K36">
+        <v>65555.7</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>65555.7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>238</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2539,31 +2857,40 @@
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F37">
-        <v>202</v>
+        <v>532</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H37">
-        <v>262.37</v>
+        <v>20263</v>
       </c>
       <c r="I37">
-        <v>52998.74</v>
+        <v>16210</v>
       </c>
       <c r="J37">
-        <v>52998.74</v>
-      </c>
-      <c r="K37" t="s">
-        <v>240</v>
+        <v>412.3</v>
+      </c>
+      <c r="K37">
+        <v>219343.6</v>
       </c>
       <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>219343.6</v>
+      </c>
+      <c r="M37" t="s">
+        <v>239</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>17</v>
       </c>
@@ -2577,31 +2904,40 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F38">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H38">
+        <v>27728</v>
+      </c>
+      <c r="I38">
+        <v>22182</v>
+      </c>
+      <c r="J38">
         <v>350.82</v>
       </c>
-      <c r="I38">
-        <v>214000.2</v>
-      </c>
-      <c r="J38">
-        <v>214000.2</v>
-      </c>
-      <c r="K38" t="s">
-        <v>241</v>
+      <c r="K38">
+        <v>206983.8</v>
       </c>
       <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>206983.8</v>
+      </c>
+      <c r="M38" t="s">
+        <v>240</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>17</v>
       </c>
@@ -2615,31 +2951,40 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F39">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="H39">
-        <v>412.3</v>
+        <v>8531</v>
       </c>
       <c r="I39">
-        <v>223878.9</v>
+        <v>6825</v>
       </c>
       <c r="J39">
-        <v>223878.9</v>
-      </c>
-      <c r="K39" t="s">
-        <v>242</v>
+        <v>52.47</v>
+      </c>
+      <c r="K39">
+        <v>12697.74</v>
       </c>
       <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>12697.74</v>
+      </c>
+      <c r="M39" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>17</v>
       </c>
@@ -2653,31 +2998,40 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F40">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H40">
-        <v>247.38</v>
+        <v>7464</v>
       </c>
       <c r="I40">
-        <v>65803.08</v>
+        <v>5971</v>
       </c>
       <c r="J40">
-        <v>65803.08</v>
-      </c>
-      <c r="K40" t="s">
-        <v>243</v>
+        <v>262.37</v>
+      </c>
+      <c r="K40">
+        <v>60082.73</v>
       </c>
       <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>60082.73</v>
+      </c>
+      <c r="M40" t="s">
+        <v>241</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>17</v>
       </c>
@@ -2691,31 +3045,40 @@
         <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H41">
+        <v>1065</v>
+      </c>
+      <c r="I41">
+        <v>852</v>
+      </c>
+      <c r="J41">
         <v>52.47</v>
       </c>
-      <c r="I41">
-        <v>3253.14</v>
-      </c>
-      <c r="J41">
-        <v>3253.14</v>
-      </c>
-      <c r="K41" t="s">
-        <v>201</v>
+      <c r="K41">
+        <v>2203.74</v>
       </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>2203.74</v>
+      </c>
+      <c r="M41" t="s">
+        <v>178</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>18</v>
       </c>
@@ -2729,31 +3092,40 @@
         <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F42">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H42">
-        <v>22.49</v>
+        <v>1288</v>
       </c>
       <c r="I42">
-        <v>5217.68</v>
+        <v>1030</v>
       </c>
       <c r="J42">
-        <v>5217.68</v>
-      </c>
-      <c r="K42" t="s">
-        <v>237</v>
+        <v>224.89</v>
+      </c>
+      <c r="K42">
+        <v>11019.61</v>
       </c>
       <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>11019.61</v>
+      </c>
+      <c r="M42" t="s">
+        <v>167</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>18</v>
       </c>
@@ -2767,31 +3139,40 @@
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F43">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H43">
-        <v>224.89</v>
+        <v>14596</v>
       </c>
       <c r="I43">
-        <v>4722.69</v>
+        <v>11676</v>
       </c>
       <c r="J43">
-        <v>4722.69</v>
-      </c>
-      <c r="K43" t="s">
-        <v>206</v>
+        <v>22.49</v>
+      </c>
+      <c r="K43">
+        <v>4947.8</v>
       </c>
       <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>4947.8</v>
+      </c>
+      <c r="M43" t="s">
+        <v>201</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>19</v>
       </c>
@@ -2805,31 +3186,40 @@
         <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F44">
-        <v>34</v>
+        <v>1262</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H44">
-        <v>119.94</v>
+        <v>58654</v>
       </c>
       <c r="I44">
-        <v>4077.96</v>
+        <v>46923</v>
       </c>
       <c r="J44">
-        <v>4077.96</v>
-      </c>
-      <c r="K44" t="s">
-        <v>190</v>
+        <v>22.49</v>
+      </c>
+      <c r="K44">
+        <v>28382.38</v>
       </c>
       <c r="L44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>28359.89</v>
+      </c>
+      <c r="M44" t="s">
+        <v>204</v>
+      </c>
+      <c r="N44">
+        <v>22.49</v>
+      </c>
+      <c r="O44">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>19</v>
       </c>
@@ -2843,31 +3233,40 @@
         <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F45">
-        <v>985</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H45">
-        <v>299.85</v>
+        <v>825</v>
       </c>
       <c r="I45">
-        <v>295352.25</v>
+        <v>660</v>
       </c>
       <c r="J45">
-        <v>295352.25</v>
-      </c>
-      <c r="K45" t="s">
-        <v>244</v>
+        <v>119.94</v>
+      </c>
+      <c r="K45">
+        <v>4437.78</v>
       </c>
       <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>4437.78</v>
+      </c>
+      <c r="M45" t="s">
+        <v>158</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>19</v>
       </c>
@@ -2881,31 +3280,40 @@
         <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F46">
-        <v>1699</v>
+        <v>1091</v>
       </c>
       <c r="G46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H46">
-        <v>22.49</v>
+        <v>36473</v>
       </c>
       <c r="I46">
-        <v>38210.51</v>
+        <v>29178</v>
       </c>
       <c r="J46">
-        <v>38120.55</v>
-      </c>
-      <c r="K46" t="s">
-        <v>245</v>
+        <v>299.85</v>
+      </c>
+      <c r="K46">
+        <v>327136.35</v>
       </c>
       <c r="L46">
-        <v>89.95999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>327136.35</v>
+      </c>
+      <c r="M46" t="s">
+        <v>242</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>20</v>
       </c>
@@ -2919,31 +3327,40 @@
         <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H47">
+        <v>14930</v>
+      </c>
+      <c r="I47">
+        <v>11944</v>
+      </c>
+      <c r="J47">
         <v>269.87</v>
       </c>
-      <c r="I47">
-        <v>6476.88</v>
-      </c>
-      <c r="J47">
-        <v>6476.88</v>
-      </c>
-      <c r="K47" t="s">
-        <v>179</v>
+      <c r="K47">
+        <v>72864.89999999999</v>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>72864.89999999999</v>
+      </c>
+      <c r="M47" t="s">
+        <v>243</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>20</v>
       </c>
@@ -2957,31 +3374,40 @@
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H48">
+        <v>2262</v>
+      </c>
+      <c r="I48">
+        <v>1809</v>
+      </c>
+      <c r="J48">
         <v>269.87</v>
       </c>
-      <c r="I48">
-        <v>75293.73</v>
-      </c>
-      <c r="J48">
-        <v>75293.73</v>
-      </c>
-      <c r="K48" t="s">
-        <v>246</v>
+      <c r="K48">
+        <v>10794.8</v>
       </c>
       <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>10794.8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>228</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>21</v>
       </c>
@@ -2995,31 +3421,40 @@
         <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="H49">
+        <v>2713</v>
+      </c>
+      <c r="I49">
+        <v>2170</v>
+      </c>
+      <c r="J49">
         <v>299.85</v>
       </c>
-      <c r="I49">
-        <v>24287.85</v>
-      </c>
-      <c r="J49">
-        <v>24287.85</v>
-      </c>
-      <c r="K49" t="s">
-        <v>216</v>
+      <c r="K49">
+        <v>25487.25</v>
       </c>
       <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>25487.25</v>
+      </c>
+      <c r="M49" t="s">
+        <v>244</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>22</v>
       </c>
@@ -3033,31 +3468,40 @@
         <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H50">
-        <v>191.15</v>
+        <v>957</v>
       </c>
       <c r="I50">
-        <v>2102.65</v>
+        <v>765</v>
       </c>
       <c r="J50">
-        <v>2102.65</v>
-      </c>
-      <c r="K50" t="s">
-        <v>180</v>
+        <v>224.89</v>
+      </c>
+      <c r="K50">
+        <v>4497.8</v>
       </c>
       <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>674.67</v>
+      </c>
+      <c r="M50" t="s">
+        <v>175</v>
+      </c>
+      <c r="N50">
+        <v>3823.13</v>
+      </c>
+      <c r="O50">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>22</v>
       </c>
@@ -3071,31 +3515,40 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H51">
+        <v>424</v>
+      </c>
+      <c r="I51">
+        <v>339</v>
+      </c>
+      <c r="J51">
         <v>134.93</v>
       </c>
-      <c r="I51">
-        <v>674.65</v>
-      </c>
-      <c r="J51">
-        <v>674.65</v>
-      </c>
-      <c r="K51" t="s">
-        <v>177</v>
+      <c r="K51">
+        <v>134.93</v>
       </c>
       <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>134.93</v>
+      </c>
+      <c r="M51" t="s">
+        <v>157</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>22</v>
       </c>
@@ -3109,31 +3562,40 @@
         <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F52">
-        <v>1336</v>
+        <v>291</v>
       </c>
       <c r="G52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H52">
-        <v>74.95999999999999</v>
+        <v>13059</v>
       </c>
       <c r="I52">
-        <v>100146.56</v>
+        <v>10447</v>
       </c>
       <c r="J52">
-        <v>89502.24000000001</v>
-      </c>
-      <c r="K52" t="s">
-        <v>247</v>
+        <v>449.78</v>
+      </c>
+      <c r="K52">
+        <v>130885.98</v>
       </c>
       <c r="L52">
-        <v>10644.32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>120091.26</v>
+      </c>
+      <c r="M52" t="s">
+        <v>245</v>
+      </c>
+      <c r="N52">
+        <v>10794.72</v>
+      </c>
+      <c r="O52">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>22</v>
       </c>
@@ -3147,31 +3609,40 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>1719</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="H53">
+        <v>536</v>
+      </c>
+      <c r="I53">
+        <v>428</v>
+      </c>
+      <c r="J53">
         <v>74.95999999999999</v>
       </c>
-      <c r="I53">
-        <v>374.8</v>
-      </c>
-      <c r="J53">
-        <v>374.8</v>
-      </c>
-      <c r="K53" t="s">
-        <v>177</v>
+      <c r="K53">
+        <v>128856.24</v>
       </c>
       <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>115213.52</v>
+      </c>
+      <c r="M53" t="s">
+        <v>246</v>
+      </c>
+      <c r="N53">
+        <v>13642.72</v>
+      </c>
+      <c r="O53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>22</v>
       </c>
@@ -3185,36 +3656,45 @@
         <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H54">
-        <v>224.89</v>
+        <v>41591</v>
       </c>
       <c r="I54">
-        <v>1124.45</v>
+        <v>33272</v>
       </c>
       <c r="J54">
-        <v>224.89</v>
-      </c>
-      <c r="K54" t="s">
-        <v>235</v>
+        <v>191.15</v>
+      </c>
+      <c r="K54">
+        <v>1529.2</v>
       </c>
       <c r="L54">
-        <v>899.5599999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>1529.2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>196</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -3223,36 +3703,45 @@
         <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F55">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="H55">
-        <v>449.78</v>
+        <v>536</v>
       </c>
       <c r="I55">
-        <v>96252.92</v>
+        <v>428</v>
       </c>
       <c r="J55">
-        <v>88156.88</v>
-      </c>
-      <c r="K55" t="s">
-        <v>248</v>
+        <v>224.89</v>
+      </c>
+      <c r="K55">
+        <v>16641.86</v>
       </c>
       <c r="L55">
-        <v>8096.04</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>16641.86</v>
+      </c>
+      <c r="M55" t="s">
+        <v>180</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -3261,31 +3750,40 @@
         <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F56">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="H56">
-        <v>224.89</v>
+        <v>5332</v>
       </c>
       <c r="I56">
-        <v>22264.11</v>
+        <v>4265</v>
       </c>
       <c r="J56">
-        <v>22264.11</v>
-      </c>
-      <c r="K56" t="s">
-        <v>249</v>
+        <v>51.12</v>
+      </c>
+      <c r="K56">
+        <v>2249.28</v>
       </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>2249.28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>178</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>24</v>
       </c>
@@ -3299,31 +3797,40 @@
         <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H57">
+        <v>2104</v>
+      </c>
+      <c r="I57">
+        <v>1683</v>
+      </c>
+      <c r="J57">
         <v>266.12</v>
       </c>
-      <c r="I57">
-        <v>10910.92</v>
-      </c>
-      <c r="J57">
-        <v>10910.92</v>
-      </c>
-      <c r="K57" t="s">
-        <v>188</v>
+      <c r="K57">
+        <v>11177.04</v>
       </c>
       <c r="L57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>11177.04</v>
+      </c>
+      <c r="M57" t="s">
+        <v>167</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>24</v>
       </c>
@@ -3337,31 +3844,40 @@
         <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F58">
-        <v>119</v>
+        <v>810</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="H58">
-        <v>22.64</v>
+        <v>1289</v>
       </c>
       <c r="I58">
-        <v>2694.16</v>
+        <v>1031</v>
       </c>
       <c r="J58">
-        <v>2694.16</v>
-      </c>
-      <c r="K58" t="s">
-        <v>250</v>
+        <v>35.68</v>
+      </c>
+      <c r="K58">
+        <v>28900.8</v>
       </c>
       <c r="L58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>28900.8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>247</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3378,28 +3894,37 @@
         <v>126</v>
       </c>
       <c r="F59">
-        <v>1145</v>
+        <v>886</v>
       </c>
       <c r="G59" t="s">
         <v>198</v>
       </c>
       <c r="H59">
-        <v>35.68</v>
+        <v>34128</v>
       </c>
       <c r="I59">
-        <v>40853.6</v>
+        <v>27302</v>
       </c>
       <c r="J59">
-        <v>40853.6</v>
-      </c>
-      <c r="K59" t="s">
-        <v>251</v>
+        <v>228.26</v>
+      </c>
+      <c r="K59">
+        <v>202238.36</v>
       </c>
       <c r="L59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>202238.36</v>
+      </c>
+      <c r="M59" t="s">
+        <v>248</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>24</v>
       </c>
@@ -3413,36 +3938,45 @@
         <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F60">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
         <v>199</v>
       </c>
       <c r="H60">
-        <v>51.12</v>
+        <v>35193</v>
       </c>
       <c r="I60">
-        <v>3425.04</v>
+        <v>28154</v>
       </c>
       <c r="J60">
-        <v>3425.04</v>
-      </c>
-      <c r="K60" t="s">
-        <v>201</v>
+        <v>22.64</v>
+      </c>
+      <c r="K60">
+        <v>2671.52</v>
       </c>
       <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>2671.52</v>
+      </c>
+      <c r="M60" t="s">
+        <v>221</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -3454,28 +3988,37 @@
         <v>127</v>
       </c>
       <c r="F61">
-        <v>813</v>
+        <v>176</v>
       </c>
       <c r="G61" t="s">
         <v>200</v>
       </c>
       <c r="H61">
-        <v>228.26</v>
+        <v>1921</v>
       </c>
       <c r="I61">
-        <v>185575.38</v>
+        <v>1536</v>
       </c>
       <c r="J61">
-        <v>185575.38</v>
-      </c>
-      <c r="K61" t="s">
-        <v>252</v>
+        <v>179.91</v>
+      </c>
+      <c r="K61">
+        <v>31664.16</v>
       </c>
       <c r="L61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>31664.16</v>
+      </c>
+      <c r="M61" t="s">
+        <v>200</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>25</v>
       </c>
@@ -3489,36 +4032,45 @@
         <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F62">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
         <v>201</v>
       </c>
       <c r="H62">
+        <v>7560</v>
+      </c>
+      <c r="I62">
+        <v>6048</v>
+      </c>
+      <c r="J62">
         <v>44.98</v>
       </c>
-      <c r="I62">
-        <v>764.66</v>
-      </c>
-      <c r="J62">
-        <v>764.66</v>
-      </c>
-      <c r="K62" t="s">
-        <v>177</v>
+      <c r="K62">
+        <v>1214.46</v>
       </c>
       <c r="L62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>1214.46</v>
+      </c>
+      <c r="M62" t="s">
+        <v>196</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -3527,31 +4079,40 @@
         <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F63">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="H63">
-        <v>179.91</v>
+        <v>1906</v>
       </c>
       <c r="I63">
-        <v>24467.76</v>
+        <v>1524</v>
       </c>
       <c r="J63">
-        <v>24467.76</v>
-      </c>
-      <c r="K63" t="s">
-        <v>216</v>
+        <v>187.41</v>
+      </c>
+      <c r="K63">
+        <v>9183.09</v>
       </c>
       <c r="L63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>9183.09</v>
+      </c>
+      <c r="M63" t="s">
+        <v>249</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>26</v>
       </c>
@@ -3565,36 +4126,45 @@
         <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F64">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H64">
+        <v>1830</v>
+      </c>
+      <c r="I64">
+        <v>1464</v>
+      </c>
+      <c r="J64">
         <v>142.43</v>
       </c>
-      <c r="I64">
-        <v>30622.45</v>
-      </c>
-      <c r="J64">
-        <v>30622.45</v>
-      </c>
-      <c r="K64" t="s">
-        <v>253</v>
+      <c r="K64">
+        <v>31619.46</v>
       </c>
       <c r="L64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>31619.46</v>
+      </c>
+      <c r="M64" t="s">
+        <v>200</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -3606,33 +4176,42 @@
         <v>127</v>
       </c>
       <c r="F65">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H65">
-        <v>187.41</v>
+        <v>8533</v>
       </c>
       <c r="I65">
-        <v>14430.57</v>
+        <v>6827</v>
       </c>
       <c r="J65">
-        <v>14430.57</v>
-      </c>
-      <c r="K65" t="s">
-        <v>232</v>
+        <v>179.91</v>
+      </c>
+      <c r="K65">
+        <v>14212.89</v>
       </c>
       <c r="L65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>14212.89</v>
+      </c>
+      <c r="M65" t="s">
+        <v>174</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -3641,31 +4220,40 @@
         <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F66">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H66">
-        <v>179.91</v>
+        <v>3564</v>
       </c>
       <c r="I66">
-        <v>11154.42</v>
+        <v>2851</v>
       </c>
       <c r="J66">
-        <v>11154.42</v>
-      </c>
-      <c r="K66" t="s">
-        <v>188</v>
+        <v>56.22</v>
+      </c>
+      <c r="K66">
+        <v>4834.92</v>
       </c>
       <c r="L66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>4834.92</v>
+      </c>
+      <c r="M66" t="s">
+        <v>201</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>28</v>
       </c>
@@ -3679,36 +4267,45 @@
         <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F67">
-        <v>107</v>
+        <v>307</v>
       </c>
       <c r="G67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H67">
-        <v>56.22</v>
+        <v>2285</v>
       </c>
       <c r="I67">
-        <v>6015.54</v>
+        <v>1828</v>
       </c>
       <c r="J67">
-        <v>6015.54</v>
-      </c>
-      <c r="K67" t="s">
-        <v>191</v>
+        <v>149.93</v>
+      </c>
+      <c r="K67">
+        <v>46028.51</v>
       </c>
       <c r="L67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>46028.51</v>
+      </c>
+      <c r="M67" t="s">
+        <v>250</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -3717,36 +4314,45 @@
         <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F68">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="G68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H68">
-        <v>149.93</v>
+        <v>9595</v>
       </c>
       <c r="I68">
-        <v>36432.99</v>
+        <v>7676</v>
       </c>
       <c r="J68">
-        <v>36432.99</v>
-      </c>
-      <c r="K68" t="s">
-        <v>155</v>
+        <v>359.82</v>
+      </c>
+      <c r="K68">
+        <v>106146.9</v>
       </c>
       <c r="L68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>106146.9</v>
+      </c>
+      <c r="M68" t="s">
+        <v>217</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3758,33 +4364,42 @@
         <v>144</v>
       </c>
       <c r="F69">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="H69">
-        <v>359.82</v>
+        <v>11731</v>
       </c>
       <c r="I69">
-        <v>102908.52</v>
+        <v>9384</v>
       </c>
       <c r="J69">
-        <v>102908.52</v>
-      </c>
-      <c r="K69" t="s">
-        <v>254</v>
+        <v>134.93</v>
+      </c>
+      <c r="K69">
+        <v>134.93</v>
       </c>
       <c r="L69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>134.93</v>
+      </c>
+      <c r="M69" t="s">
+        <v>157</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3793,31 +4408,40 @@
         <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F70">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="G70" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H70">
-        <v>134.93</v>
+        <v>521</v>
       </c>
       <c r="I70">
-        <v>3643.11</v>
+        <v>416</v>
       </c>
       <c r="J70">
-        <v>3643.11</v>
-      </c>
-      <c r="K70" t="s">
-        <v>190</v>
+        <v>187.41</v>
+      </c>
+      <c r="K70">
+        <v>29610.78</v>
       </c>
       <c r="L70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>29610.78</v>
+      </c>
+      <c r="M70" t="s">
+        <v>233</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>31</v>
       </c>
@@ -3831,36 +4455,45 @@
         <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F71">
-        <v>1620</v>
+        <v>1835</v>
       </c>
       <c r="G71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H71">
+        <v>4555</v>
+      </c>
+      <c r="I71">
+        <v>3644</v>
+      </c>
+      <c r="J71">
         <v>41.23</v>
       </c>
-      <c r="I71">
-        <v>66792.60000000001</v>
-      </c>
-      <c r="J71">
-        <v>61185.32</v>
-      </c>
-      <c r="K71" t="s">
-        <v>156</v>
+      <c r="K71">
+        <v>75657.05</v>
       </c>
       <c r="L71">
-        <v>5607.28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>69266.39999999999</v>
+      </c>
+      <c r="M71" t="s">
+        <v>251</v>
+      </c>
+      <c r="N71">
+        <v>6390.65</v>
+      </c>
+      <c r="O71">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -3869,36 +4502,45 @@
         <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F72">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="H72">
-        <v>187.41</v>
+        <v>197285</v>
       </c>
       <c r="I72">
-        <v>17241.72</v>
+        <v>157828</v>
       </c>
       <c r="J72">
-        <v>17241.72</v>
-      </c>
-      <c r="K72" t="s">
-        <v>160</v>
+        <v>299.85</v>
+      </c>
+      <c r="K72">
+        <v>35982</v>
       </c>
       <c r="L72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>35982</v>
+      </c>
+      <c r="M72" t="s">
+        <v>224</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>15025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3907,36 +4549,45 @@
         <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F73">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H73">
-        <v>299.85</v>
+        <v>6190</v>
       </c>
       <c r="I73">
-        <v>29685.15</v>
+        <v>4952</v>
       </c>
       <c r="J73">
-        <v>29685.15</v>
-      </c>
-      <c r="K73" t="s">
-        <v>221</v>
+        <v>134.93</v>
+      </c>
+      <c r="K73">
+        <v>134.93</v>
       </c>
       <c r="L73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>134.93</v>
+      </c>
+      <c r="M73" t="s">
+        <v>157</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3945,36 +4596,45 @@
         <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="G74" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H74">
-        <v>134.93</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>809.58</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>809.58</v>
-      </c>
-      <c r="K74" t="s">
-        <v>177</v>
+        <v>29.99</v>
+      </c>
+      <c r="K74">
+        <v>8667.110000000001</v>
       </c>
       <c r="L74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>8667.110000000001</v>
+      </c>
+      <c r="M74" t="s">
+        <v>186</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3986,28 +4646,37 @@
         <v>147</v>
       </c>
       <c r="F75">
-        <v>121</v>
+        <v>503</v>
       </c>
       <c r="G75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H75">
-        <v>29.99</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3628.79</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>3628.79</v>
-      </c>
-      <c r="K75" t="s">
-        <v>190</v>
+        <v>71.20999999999999</v>
+      </c>
+      <c r="K75">
+        <v>35818.63</v>
       </c>
       <c r="L75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>34323.22</v>
+      </c>
+      <c r="M75" t="s">
+        <v>252</v>
+      </c>
+      <c r="N75">
+        <v>1495.41</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>35</v>
       </c>
@@ -4021,31 +4690,40 @@
         <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="F76">
-        <v>157</v>
+        <v>1707</v>
       </c>
       <c r="G76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H76">
-        <v>224.89</v>
+        <v>37000</v>
       </c>
       <c r="I76">
-        <v>35307.73</v>
+        <v>29600</v>
       </c>
       <c r="J76">
-        <v>35307.73</v>
-      </c>
-      <c r="K76" t="s">
-        <v>255</v>
+        <v>314.84</v>
+      </c>
+      <c r="K76">
+        <v>537431.88</v>
       </c>
       <c r="L76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>512559.52</v>
+      </c>
+      <c r="M76" t="s">
+        <v>253</v>
+      </c>
+      <c r="N76">
+        <v>24872.36</v>
+      </c>
+      <c r="O76">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>35</v>
       </c>
@@ -4059,31 +4737,40 @@
         <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="F77">
-        <v>1396</v>
+        <v>186</v>
       </c>
       <c r="G77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H77">
-        <v>314.84</v>
+        <v>60000</v>
       </c>
       <c r="I77">
-        <v>439516.64</v>
+        <v>48000</v>
       </c>
       <c r="J77">
-        <v>419052.04</v>
-      </c>
-      <c r="K77" t="s">
-        <v>256</v>
+        <v>224.89</v>
+      </c>
+      <c r="K77">
+        <v>41829.54</v>
       </c>
       <c r="L77">
-        <v>20464.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>41829.54</v>
+      </c>
+      <c r="M77" t="s">
+        <v>254</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>35</v>
       </c>
@@ -4100,28 +4787,37 @@
         <v>149</v>
       </c>
       <c r="F78">
-        <v>708</v>
+        <v>1694</v>
       </c>
       <c r="G78" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H78">
-        <v>71.20999999999999</v>
+        <v>8200</v>
       </c>
       <c r="I78">
-        <v>50416.68</v>
+        <v>6560</v>
       </c>
       <c r="J78">
-        <v>47853.12</v>
-      </c>
-      <c r="K78" t="s">
-        <v>194</v>
+        <v>104.95</v>
+      </c>
+      <c r="K78">
+        <v>177785.3</v>
       </c>
       <c r="L78">
-        <v>2563.56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>168444.75</v>
+      </c>
+      <c r="M78" t="s">
+        <v>255</v>
+      </c>
+      <c r="N78">
+        <v>9340.549999999999</v>
+      </c>
+      <c r="O78">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>35</v>
       </c>
@@ -4138,63 +4834,45 @@
         <v>150</v>
       </c>
       <c r="F79">
-        <v>1253</v>
+        <v>191</v>
       </c>
       <c r="G79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H79">
-        <v>104.95</v>
+        <v>58000</v>
       </c>
       <c r="I79">
-        <v>131502.35</v>
+        <v>46400</v>
       </c>
       <c r="J79">
-        <v>126464.75</v>
-      </c>
-      <c r="K79" t="s">
-        <v>257</v>
+        <v>143.93</v>
+      </c>
+      <c r="K79">
+        <v>27490.63</v>
       </c>
       <c r="L79">
-        <v>5037.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80">
-        <v>35</v>
-      </c>
-      <c r="B80" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80">
-        <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80">
-        <v>160</v>
-      </c>
-      <c r="G80" t="s">
-        <v>175</v>
-      </c>
+        <v>27490.63</v>
+      </c>
+      <c r="M79" t="s">
+        <v>256</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="H80">
-        <v>143.93</v>
+        <v>8999</v>
       </c>
       <c r="I80">
-        <v>23028.8</v>
-      </c>
-      <c r="J80">
-        <v>23028.8</v>
-      </c>
-      <c r="K80" t="s">
-        <v>258</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
+        <v>7199</v>
+      </c>
+      <c r="O80">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
